--- a/References.xlsx
+++ b/References.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ennosgermancourse-my.sharepoint.com/personal/ennowinkler_ennosgermancourse_onmicrosoft_com/Documents/A Fernstudium Kursmaterial/Bachelorarbeit-Exposee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_FCABCD9777D094EC5F730EC0997A9122F62C3D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EEBAF44-CBE8-4315-AA4B-6C82C9DDDC57}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_FCABCD9777D094EC5F730EC0997A9122F62C3D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B311125-5A0B-4CC5-B29E-399C13B0E93E}"/>
   <bookViews>
-    <workbookView xWindow="-37875" yWindow="-780" windowWidth="21420" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5460" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="30" r:id="rId1"/>
@@ -114,15 +114,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@incollection{assembly2017resolution,
-  title = {Resolution adopted by the General Assembly on 6 July 2017},
-  author = {{United Nations General Assembly}},
-  booktitle = {Technical Report A/RES/71/313},
-  year = {2017}
-}
-</t>
   </si>
   <si>
     <t>@article{Stetson2005,
@@ -827,6 +818,15 @@
   institution = {University of Michigan},
 }</t>
   </si>
+  <si>
+    <t xml:space="preserve">@incollection{assembly2017resolution,
+  title = {{Resolution adopted by the General Assembly on 6 July 2017}},
+  author = {{United Nations General Assembly}},
+  booktitle = {Technical Report A/RES/71/313},
+  year = {2017}
+}
+</t>
+  </si>
 </sst>
 </file>
 
@@ -17618,9 +17618,9 @@
   <dimension ref="A1:R496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17700,7 +17700,7 @@
     </row>
     <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B2" s="13" t="str">
         <f t="shared" ref="B2:B63" si="0">IFERROR("@" &amp; MID(A2, SEARCH("{", A2) + 1, SEARCH(",", A2) - SEARCH("{", A2) - 1), "")</f>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="F2" s="12" t="str">
         <f>IFERROR(IF(ISERROR(FIND("title =",A2)),"",MID(A2,FIND("title =",A2)+9,FIND("}",A2,FIND("title =",A2))-FIND("title =",A2)-9)),"")</f>
-        <v>Resolution adopted by the General Assembly on 6 July 2017</v>
+        <v>{Resolution adopted by the General Assembly on 6 July 2017</v>
       </c>
       <c r="G2" s="14" t="str">
         <f>IFERROR("https://doi.org/" &amp; MID(A32, SEARCH("DOI = {", A32) + 7, FIND("}", A32, SEARCH("DOI = {", A32)) - SEARCH("DOI = {", A32) - 7),"")</f>
@@ -17734,7 +17734,7 @@
     </row>
     <row r="3" spans="1:18" ht="161.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17768,7 +17768,7 @@
     </row>
     <row r="4" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17802,7 +17802,7 @@
     </row>
     <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17870,7 +17870,7 @@
     </row>
     <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17904,7 +17904,7 @@
     </row>
     <row r="8" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17938,7 +17938,7 @@
     </row>
     <row r="9" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="10" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="11" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18040,7 +18040,7 @@
     </row>
     <row r="12" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="13" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="14" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18142,7 +18142,7 @@
     </row>
     <row r="15" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="16" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18244,7 +18244,7 @@
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18278,7 +18278,7 @@
     </row>
     <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18312,7 +18312,7 @@
     </row>
     <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" s="13" t="str">
         <f t="shared" si="0"/>
@@ -33548,176 +33548,176 @@
   <sheetData>
     <row r="1" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="29"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -33743,7 +33743,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -33754,48 +33754,48 @@
       <c r="H1" s="32"/>
       <c r="I1" s="32"/>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>74</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>79</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>80</v>
-      </c>
-      <c r="M2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -33900,12 +33900,12 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -33925,7 +33925,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="34"/>
       <c r="C26" s="34"/>

--- a/References.xlsx
+++ b/References.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ennosgermancourse-my.sharepoint.com/personal/ennowinkler_ennosgermancourse_onmicrosoft_com/Documents/A Fernstudium Kursmaterial/Bachelorarbeit-Exposee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_FCABCD9777D094EC5F730EC0997A9122F62C3D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D742DA99-2BE5-4C3D-A0BF-7597F771A4BC}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="11_FCABCD9777D094EC5F730EC0997A9122F62C3D7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0619B0B-881F-4485-8BCD-C6C7C273EBFE}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5460" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5460" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="30" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Add References Manually" sheetId="3" r:id="rId3"/>
     <sheet name="Notes" sheetId="31" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterate="1" calcCompleted="0"/>
+  <calcPr calcId="191028" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -369,7 +369,7 @@
   </si>
   <si>
     <t xml:space="preserve">  @Article{lme4,
-    title = {Fitting Linear Mixed-Effects Models Using {lme4}},
+    title = {Fitting Linear Mixed-Effects Models Using {{lme4}}},
     author = {Douglas Bates and Martin M{\"a}chler and Ben Bolker and Steve Walker},
     journal = {Journal of Statistical Software},
     year = {2015},
@@ -830,11 +830,11 @@
   <si>
     <t>~ (affektiv
 e Faktoren bisher
-wenig berücksichtigt)! https://www.studydrive.net/de/doc/afg-kurs-1/1701589</t>
+wenig berücksichtigt</t>
   </si>
   <si>
     <t xml:space="preserve">Was uns am Laufen Hält: Der Beitrag von Attribution, Affekt und Positiven Emotionen zur Aufrechterhaltung von Bewegungsverhalten aus der Perspektive des HAPA-Modells
-- Affektive aspekte bei HAPA wenig berücksichtig
+- Affektive aspekte bei 
 - Bewegung-Adhärenz dient zur Prävention und ist gesundheitsbezogene Ressource
 - aktionale Phase des HAPA-Modells: wöchentliche multilevel-analyse für Einflussfaktoren auf Bewegungsintensität und -Dauer, Berücksichtigung von Alter und Geschlecht
 </t>
@@ -844,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1033,7 +1033,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,7 +1085,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFE1" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="80"/>
         </a:solidFill>
         <a:ln w="9525">
           <a:solidFill>
@@ -1124,9 +1124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1164,7 +1164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1270,7 +1270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1412,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1434,7 +1434,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -1453,7 +1453,7 @@
     <col min="18" max="18" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36" customHeight="1">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1">
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="36" customHeight="1">
+    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="36" customHeight="1">
+    <row r="4" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="36" customHeight="1">
+    <row r="5" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1">
+    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="36" customHeight="1">
+    <row r="7" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1">
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1">
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1">
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="36" customHeight="1">
+    <row r="11" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="36" customHeight="1">
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="36" customHeight="1">
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="36" customHeight="1">
+    <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1">
+    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="36" customHeight="1">
+    <row r="16" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="36" customHeight="1">
+    <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="36" customHeight="1">
+    <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="36" customHeight="1">
+    <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="36" customHeight="1">
+    <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="36" customHeight="1">
+    <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="36" customHeight="1">
+    <row r="22" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="36" customHeight="1">
+    <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="36" customHeight="1">
+    <row r="24" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="36" customHeight="1">
+    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1">
+    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="36" customHeight="1">
+    <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="36" customHeight="1">
+    <row r="28" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="36" customHeight="1">
+    <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="36" customHeight="1">
+    <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="36" customHeight="1">
+    <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="36" customHeight="1">
+    <row r="32" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="36" customHeight="1">
+    <row r="33" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="36" customHeight="1">
+    <row r="34" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="36" customHeight="1">
+    <row r="35" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="36" customHeight="1">
+    <row r="36" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="36" customHeight="1">
+    <row r="37" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="36" customHeight="1">
+    <row r="38" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="36" customHeight="1">
+    <row r="39" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="36" customHeight="1">
+    <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="36" customHeight="1">
+    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="36" customHeight="1">
+    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="36" customHeight="1">
+    <row r="43" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="36" customHeight="1">
+    <row r="44" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="36" customHeight="1">
+    <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="36" customHeight="1">
+    <row r="46" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="36" customHeight="1">
+    <row r="47" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="36" customHeight="1">
+    <row r="48" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="36" customHeight="1">
+    <row r="49" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="36" customHeight="1">
+    <row r="50" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="36" customHeight="1">
+    <row r="51" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="36" customHeight="1">
+    <row r="52" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="36" customHeight="1">
+    <row r="53" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1">
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="36" customHeight="1">
+    <row r="55" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="36" customHeight="1">
+    <row r="56" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="36" customHeight="1">
+    <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="36" customHeight="1">
+    <row r="58" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="36" customHeight="1">
+    <row r="59" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="36" customHeight="1">
+    <row r="60" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="36" customHeight="1">
+    <row r="61" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="36" customHeight="1">
+    <row r="62" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="36" customHeight="1">
+    <row r="63" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="36" customHeight="1">
+    <row r="64" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="2"/>
       <c r="B64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="36" customHeight="1">
+    <row r="65" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="2"/>
       <c r="B65" s="3" t="str">
         <f t="shared" ref="B65:B128" si="7">IFERROR("@" &amp; MID(A65, SEARCH("{", A65) + 1, SEARCH(",", A65) - SEARCH("{", A65) - 1), "")</f>
@@ -3535,7 +3535,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="36" customHeight="1">
+    <row r="66" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="2"/>
       <c r="B66" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="36" customHeight="1">
+    <row r="67" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="2"/>
       <c r="B67" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="36" customHeight="1">
+    <row r="68" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="2"/>
       <c r="B68" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="36" customHeight="1">
+    <row r="69" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="2"/>
       <c r="B69" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="36" customHeight="1">
+    <row r="70" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="2"/>
       <c r="B70" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="36" customHeight="1">
+    <row r="71" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="2"/>
       <c r="B71" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="36" customHeight="1">
+    <row r="72" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="2"/>
       <c r="B72" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="36" customHeight="1">
+    <row r="73" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="2"/>
       <c r="B73" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="36" customHeight="1">
+    <row r="74" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="2"/>
       <c r="B74" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3823,7 +3823,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="36" customHeight="1">
+    <row r="75" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="2"/>
       <c r="B75" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="36" customHeight="1">
+    <row r="76" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="36" customHeight="1">
+    <row r="77" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="2"/>
       <c r="B77" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="36" customHeight="1">
+    <row r="78" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="2"/>
       <c r="B78" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="36" customHeight="1">
+    <row r="79" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="2"/>
       <c r="B79" s="3" t="str">
         <f t="shared" si="7"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="36" customHeight="1">
+    <row r="80" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="2"/>
       <c r="B80" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="36" customHeight="1">
+    <row r="81" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="2"/>
       <c r="B81" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="36" customHeight="1">
+    <row r="82" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="2"/>
       <c r="B82" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="36" customHeight="1">
+    <row r="83" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="2"/>
       <c r="B83" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="36" customHeight="1">
+    <row r="84" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="36" customHeight="1">
+    <row r="85" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="2"/>
       <c r="B85" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="36" customHeight="1">
+    <row r="86" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="2"/>
       <c r="B86" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="36" customHeight="1">
+    <row r="87" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="2"/>
       <c r="B87" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="36" customHeight="1">
+    <row r="88" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2"/>
       <c r="B88" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="36" customHeight="1">
+    <row r="89" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2"/>
       <c r="B89" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="36" customHeight="1">
+    <row r="90" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="2"/>
       <c r="B90" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="36" customHeight="1">
+    <row r="91" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="2"/>
       <c r="B91" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="36" customHeight="1">
+    <row r="92" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="2"/>
       <c r="B92" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="36" customHeight="1">
+    <row r="93" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="2"/>
       <c r="B93" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4431,7 +4431,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="36" customHeight="1">
+    <row r="94" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="2"/>
       <c r="B94" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="36" customHeight="1">
+    <row r="95" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="2"/>
       <c r="B95" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="36" customHeight="1">
+    <row r="96" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="2"/>
       <c r="B96" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="36" customHeight="1">
+    <row r="97" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="2"/>
       <c r="B97" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="36" customHeight="1">
+    <row r="98" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="2"/>
       <c r="B98" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="36" customHeight="1">
+    <row r="99" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="2"/>
       <c r="B99" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4623,7 +4623,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="36" customHeight="1">
+    <row r="100" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="2"/>
       <c r="B100" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4655,7 +4655,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="36" customHeight="1">
+    <row r="101" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="2"/>
       <c r="B101" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4687,7 +4687,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="36" customHeight="1">
+    <row r="102" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2"/>
       <c r="B102" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="36" customHeight="1">
+    <row r="103" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="2"/>
       <c r="B103" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="36" customHeight="1">
+    <row r="104" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2"/>
       <c r="B104" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="36" customHeight="1">
+    <row r="105" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2"/>
       <c r="B105" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="36" customHeight="1">
+    <row r="106" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2"/>
       <c r="B106" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4847,7 +4847,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="36" customHeight="1">
+    <row r="107" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2"/>
       <c r="B107" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="36" customHeight="1">
+    <row r="108" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2"/>
       <c r="B108" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="36" customHeight="1">
+    <row r="109" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2"/>
       <c r="B109" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="36" customHeight="1">
+    <row r="110" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2"/>
       <c r="B110" s="3" t="str">
         <f t="shared" si="7"/>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="36" customHeight="1">
+    <row r="111" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="2"/>
       <c r="B111" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="36" customHeight="1">
+    <row r="112" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="2"/>
       <c r="B112" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="36" customHeight="1">
+    <row r="113" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="2"/>
       <c r="B113" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="36" customHeight="1">
+    <row r="114" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="2"/>
       <c r="B114" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="36" customHeight="1">
+    <row r="115" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="2"/>
       <c r="B115" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="36" customHeight="1">
+    <row r="116" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="2"/>
       <c r="B116" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="36" customHeight="1">
+    <row r="117" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="2"/>
       <c r="B117" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="36" customHeight="1">
+    <row r="118" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="2"/>
       <c r="B118" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="36" customHeight="1">
+    <row r="119" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="2"/>
       <c r="B119" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="36" customHeight="1">
+    <row r="120" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="2"/>
       <c r="B120" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="36" customHeight="1">
+    <row r="121" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="2"/>
       <c r="B121" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="36" customHeight="1">
+    <row r="122" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
       <c r="B122" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5359,7 +5359,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="36" customHeight="1">
+    <row r="123" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="2"/>
       <c r="B123" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="36" customHeight="1">
+    <row r="124" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="2"/>
       <c r="B124" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="36" customHeight="1">
+    <row r="125" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="2"/>
       <c r="B125" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="36" customHeight="1">
+    <row r="126" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="2"/>
       <c r="B126" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="36" customHeight="1">
+    <row r="127" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2"/>
       <c r="B127" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="36" customHeight="1">
+    <row r="128" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2"/>
       <c r="B128" s="3" t="str">
         <f t="shared" si="7"/>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="36" customHeight="1">
+    <row r="129" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2"/>
       <c r="B129" s="3" t="str">
         <f t="shared" ref="B129:B192" si="14">IFERROR("@" &amp; MID(A129, SEARCH("{", A129) + 1, SEARCH(",", A129) - SEARCH("{", A129) - 1), "")</f>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="36" customHeight="1">
+    <row r="130" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2"/>
       <c r="B130" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="36" customHeight="1">
+    <row r="131" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2"/>
       <c r="B131" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="36" customHeight="1">
+    <row r="132" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2"/>
       <c r="B132" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="36" customHeight="1">
+    <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2"/>
       <c r="B133" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="36" customHeight="1">
+    <row r="134" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2"/>
       <c r="B134" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5743,7 +5743,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="36" customHeight="1">
+    <row r="135" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2"/>
       <c r="B135" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="36" customHeight="1">
+    <row r="136" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2"/>
       <c r="B136" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5807,7 +5807,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="36" customHeight="1">
+    <row r="137" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="2"/>
       <c r="B137" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="36" customHeight="1">
+    <row r="138" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="2"/>
       <c r="B138" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="36" customHeight="1">
+    <row r="139" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="2"/>
       <c r="B139" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="36" customHeight="1">
+    <row r="140" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="2"/>
       <c r="B140" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="36" customHeight="1">
+    <row r="141" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="2"/>
       <c r="B141" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="36" customHeight="1">
+    <row r="142" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="2"/>
       <c r="B142" s="3" t="str">
         <f t="shared" si="14"/>
@@ -5999,7 +5999,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="36" customHeight="1">
+    <row r="143" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="2"/>
       <c r="B143" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="36" customHeight="1">
+    <row r="144" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="2"/>
       <c r="B144" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="36" customHeight="1">
+    <row r="145" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="2"/>
       <c r="B145" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="36" customHeight="1">
+    <row r="146" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="2"/>
       <c r="B146" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="36" customHeight="1">
+    <row r="147" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="2"/>
       <c r="B147" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6159,7 +6159,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="36" customHeight="1">
+    <row r="148" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="2"/>
       <c r="B148" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="36" customHeight="1">
+    <row r="149" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="2"/>
       <c r="B149" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6223,7 +6223,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="36" customHeight="1">
+    <row r="150" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="2"/>
       <c r="B150" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="36" customHeight="1">
+    <row r="151" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="2"/>
       <c r="B151" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="36" customHeight="1">
+    <row r="152" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="2"/>
       <c r="B152" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="36" customHeight="1">
+    <row r="153" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="2"/>
       <c r="B153" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="36" customHeight="1">
+    <row r="154" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="2"/>
       <c r="B154" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="36" customHeight="1">
+    <row r="155" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="2"/>
       <c r="B155" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6415,7 +6415,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="36" customHeight="1">
+    <row r="156" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="2"/>
       <c r="B156" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6447,7 +6447,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="36" customHeight="1">
+    <row r="157" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="2"/>
       <c r="B157" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="36" customHeight="1">
+    <row r="158" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="2"/>
       <c r="B158" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="36" customHeight="1">
+    <row r="159" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="2"/>
       <c r="B159" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="36" customHeight="1">
+    <row r="160" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="2"/>
       <c r="B160" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="36" customHeight="1">
+    <row r="161" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="2"/>
       <c r="B161" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="36" customHeight="1">
+    <row r="162" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="2"/>
       <c r="B162" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="36" customHeight="1">
+    <row r="163" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="2"/>
       <c r="B163" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="36" customHeight="1">
+    <row r="164" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="2"/>
       <c r="B164" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="36" customHeight="1">
+    <row r="165" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="2"/>
       <c r="B165" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="36" customHeight="1">
+    <row r="166" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="2"/>
       <c r="B166" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6767,7 +6767,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="36" customHeight="1">
+    <row r="167" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="2"/>
       <c r="B167" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6799,7 +6799,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="36" customHeight="1">
+    <row r="168" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="2"/>
       <c r="B168" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="36" customHeight="1">
+    <row r="169" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="2"/>
       <c r="B169" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6863,7 +6863,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="36" customHeight="1">
+    <row r="170" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="2"/>
       <c r="B170" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="36" customHeight="1">
+    <row r="171" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="36" customHeight="1">
+    <row r="172" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="2"/>
       <c r="B172" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6959,7 +6959,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="36" customHeight="1">
+    <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="2"/>
       <c r="B173" s="3" t="str">
         <f t="shared" si="14"/>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="36" customHeight="1">
+    <row r="174" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="2"/>
       <c r="B174" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="36" customHeight="1">
+    <row r="175" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="2"/>
       <c r="B175" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="36" customHeight="1">
+    <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="2"/>
       <c r="B176" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="36" customHeight="1">
+    <row r="177" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="2"/>
       <c r="B177" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="36" customHeight="1">
+    <row r="178" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="2"/>
       <c r="B178" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="36" customHeight="1">
+    <row r="179" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="2"/>
       <c r="B179" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="36" customHeight="1">
+    <row r="180" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="2"/>
       <c r="B180" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="36" customHeight="1">
+    <row r="181" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="2"/>
       <c r="B181" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7247,7 +7247,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="36" customHeight="1">
+    <row r="182" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="2"/>
       <c r="B182" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="36" customHeight="1">
+    <row r="183" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="2"/>
       <c r="B183" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="36" customHeight="1">
+    <row r="184" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="2"/>
       <c r="B184" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="36" customHeight="1">
+    <row r="185" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="2"/>
       <c r="B185" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="36" customHeight="1">
+    <row r="186" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="2"/>
       <c r="B186" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="36" customHeight="1">
+    <row r="187" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="2"/>
       <c r="B187" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="36" customHeight="1">
+    <row r="188" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="2"/>
       <c r="B188" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="36" customHeight="1">
+    <row r="189" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="2"/>
       <c r="B189" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="36" customHeight="1">
+    <row r="190" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="2"/>
       <c r="B190" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="36" customHeight="1">
+    <row r="191" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="2"/>
       <c r="B191" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7567,7 +7567,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="36" customHeight="1">
+    <row r="192" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="2"/>
       <c r="B192" s="3" t="str">
         <f t="shared" si="14"/>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="36" customHeight="1">
+    <row r="193" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="2"/>
       <c r="B193" s="3" t="str">
         <f t="shared" ref="B193:B256" si="21">IFERROR("@" &amp; MID(A193, SEARCH("{", A193) + 1, SEARCH(",", A193) - SEARCH("{", A193) - 1), "")</f>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="36" customHeight="1">
+    <row r="194" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="2"/>
       <c r="B194" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="36" customHeight="1">
+    <row r="195" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="2"/>
       <c r="B195" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7695,7 +7695,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="36" customHeight="1">
+    <row r="196" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="2"/>
       <c r="B196" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="36" customHeight="1">
+    <row r="197" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="2"/>
       <c r="B197" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="36" customHeight="1">
+    <row r="198" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="2"/>
       <c r="B198" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="36" customHeight="1">
+    <row r="199" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" ht="36" customHeight="1">
+    <row r="200" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="2"/>
       <c r="B200" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7855,7 +7855,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="36" customHeight="1">
+    <row r="201" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="2"/>
       <c r="B201" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="36" customHeight="1">
+    <row r="202" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="2"/>
       <c r="B202" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="36" customHeight="1">
+    <row r="203" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="2"/>
       <c r="B203" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="36" customHeight="1">
+    <row r="204" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="2"/>
       <c r="B204" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="36" customHeight="1">
+    <row r="205" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="2"/>
       <c r="B205" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="36" customHeight="1">
+    <row r="206" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="2"/>
       <c r="B206" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" ht="36" customHeight="1">
+    <row r="207" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="2"/>
       <c r="B207" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" ht="36" customHeight="1">
+    <row r="208" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="2"/>
       <c r="B208" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" ht="36" customHeight="1">
+    <row r="209" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="2"/>
       <c r="B209" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" ht="36" customHeight="1">
+    <row r="210" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="2"/>
       <c r="B210" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8175,7 +8175,7 @@
       </c>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="36" customHeight="1">
+    <row r="211" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="2"/>
       <c r="B211" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8207,7 +8207,7 @@
       </c>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="36" customHeight="1">
+    <row r="212" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="2"/>
       <c r="B212" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="36" customHeight="1">
+    <row r="213" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="2"/>
       <c r="B213" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="36" customHeight="1">
+    <row r="214" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="2"/>
       <c r="B214" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8303,7 +8303,7 @@
       </c>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="36" customHeight="1">
+    <row r="215" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="2"/>
       <c r="B215" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="36" customHeight="1">
+    <row r="216" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="2"/>
       <c r="B216" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="36" customHeight="1">
+    <row r="217" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="2"/>
       <c r="B217" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="36" customHeight="1">
+    <row r="218" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="2"/>
       <c r="B218" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="36" customHeight="1">
+    <row r="219" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="2"/>
       <c r="B219" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="36" customHeight="1">
+    <row r="220" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="2"/>
       <c r="B220" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8495,7 +8495,7 @@
       </c>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="36" customHeight="1">
+    <row r="221" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="2"/>
       <c r="B221" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="36" customHeight="1">
+    <row r="222" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="2"/>
       <c r="B222" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="36" customHeight="1">
+    <row r="223" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="2"/>
       <c r="B223" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="36" customHeight="1">
+    <row r="224" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="2"/>
       <c r="B224" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8623,7 +8623,7 @@
       </c>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="36" customHeight="1">
+    <row r="225" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="2"/>
       <c r="B225" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="36" customHeight="1">
+    <row r="226" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="2"/>
       <c r="B226" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="36" customHeight="1">
+    <row r="227" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="2"/>
       <c r="B227" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="36" customHeight="1">
+    <row r="228" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2"/>
       <c r="B228" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="36" customHeight="1">
+    <row r="229" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="2"/>
       <c r="B229" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="36" customHeight="1">
+    <row r="230" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="2"/>
       <c r="B230" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="36" customHeight="1">
+    <row r="231" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="2"/>
       <c r="B231" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="36" customHeight="1">
+    <row r="232" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="2"/>
       <c r="B232" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="36" customHeight="1">
+    <row r="233" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="2"/>
       <c r="B233" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="36" customHeight="1">
+    <row r="234" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="2"/>
       <c r="B234" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="36" customHeight="1">
+    <row r="235" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="2"/>
       <c r="B235" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="36" customHeight="1">
+    <row r="236" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="2"/>
       <c r="B236" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9007,7 +9007,7 @@
       </c>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="36" customHeight="1">
+    <row r="237" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="2"/>
       <c r="B237" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="36" customHeight="1">
+    <row r="238" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="2"/>
       <c r="B238" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="36" customHeight="1">
+    <row r="239" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="2"/>
       <c r="B239" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="36" customHeight="1">
+    <row r="240" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="2"/>
       <c r="B240" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" ht="36" customHeight="1">
+    <row r="241" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="2"/>
       <c r="B241" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9167,7 +9167,7 @@
       </c>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" ht="36" customHeight="1">
+    <row r="242" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="2"/>
       <c r="B242" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9199,7 +9199,7 @@
       </c>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="36" customHeight="1">
+    <row r="243" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" ht="36" customHeight="1">
+    <row r="244" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="2"/>
       <c r="B244" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9263,7 +9263,7 @@
       </c>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="36" customHeight="1">
+    <row r="245" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="2"/>
       <c r="B245" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="36" customHeight="1">
+    <row r="246" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="2"/>
       <c r="B246" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9327,7 +9327,7 @@
       </c>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" ht="36" customHeight="1">
+    <row r="247" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="2"/>
       <c r="B247" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" ht="36" customHeight="1">
+    <row r="248" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="2"/>
       <c r="B248" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" ht="36" customHeight="1">
+    <row r="249" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="2"/>
       <c r="B249" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9423,7 +9423,7 @@
       </c>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" ht="36" customHeight="1">
+    <row r="250" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="2"/>
       <c r="B250" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" ht="36" customHeight="1">
+    <row r="251" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="2"/>
       <c r="B251" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9487,7 +9487,7 @@
       </c>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" ht="36" customHeight="1">
+    <row r="252" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="2"/>
       <c r="B252" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" ht="36" customHeight="1">
+    <row r="253" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="2"/>
       <c r="B253" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="36" customHeight="1">
+    <row r="254" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="2"/>
       <c r="B254" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" ht="36" customHeight="1">
+    <row r="255" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="2"/>
       <c r="B255" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" ht="36" customHeight="1">
+    <row r="256" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="2"/>
       <c r="B256" s="3" t="str">
         <f t="shared" si="21"/>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" ht="36" customHeight="1">
+    <row r="257" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="2"/>
       <c r="B257" s="3" t="str">
         <f t="shared" ref="B257:B320" si="28">IFERROR("@" &amp; MID(A257, SEARCH("{", A257) + 1, SEARCH(",", A257) - SEARCH("{", A257) - 1), "")</f>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" ht="36" customHeight="1">
+    <row r="258" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="2"/>
       <c r="B258" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" ht="36" customHeight="1">
+    <row r="259" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="2"/>
       <c r="B259" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" ht="36" customHeight="1">
+    <row r="260" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="2"/>
       <c r="B260" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9775,7 +9775,7 @@
       </c>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" ht="36" customHeight="1">
+    <row r="261" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="2"/>
       <c r="B261" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" ht="36" customHeight="1">
+    <row r="262" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="2"/>
       <c r="B262" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" ht="36" customHeight="1">
+    <row r="263" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="2"/>
       <c r="B263" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9871,7 +9871,7 @@
       </c>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" ht="36" customHeight="1">
+    <row r="264" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="2"/>
       <c r="B264" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" ht="36" customHeight="1">
+    <row r="265" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="2"/>
       <c r="B265" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" ht="36" customHeight="1">
+    <row r="266" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="2"/>
       <c r="B266" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" ht="36" customHeight="1">
+    <row r="267" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="2"/>
       <c r="B267" s="3" t="str">
         <f t="shared" si="28"/>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" ht="36" customHeight="1">
+    <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="2"/>
       <c r="B268" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" ht="36" customHeight="1">
+    <row r="269" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="2"/>
       <c r="B269" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" ht="36" customHeight="1">
+    <row r="270" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="2"/>
       <c r="B270" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" ht="36" customHeight="1">
+    <row r="271" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="2"/>
       <c r="B271" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" ht="36" customHeight="1">
+    <row r="272" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="2"/>
       <c r="B272" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10159,7 +10159,7 @@
       </c>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" ht="36" customHeight="1">
+    <row r="273" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="2"/>
       <c r="B273" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" ht="36" customHeight="1">
+    <row r="274" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="2"/>
       <c r="B274" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" ht="36" customHeight="1">
+    <row r="275" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="2"/>
       <c r="B275" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" ht="36" customHeight="1">
+    <row r="276" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="2"/>
       <c r="B276" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" ht="36" customHeight="1">
+    <row r="277" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="2"/>
       <c r="B277" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" ht="36" customHeight="1">
+    <row r="278" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="2"/>
       <c r="B278" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" ht="36" customHeight="1">
+    <row r="279" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="2"/>
       <c r="B279" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10383,7 +10383,7 @@
       </c>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" ht="36" customHeight="1">
+    <row r="280" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="2"/>
       <c r="B280" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" ht="36" customHeight="1">
+    <row r="281" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="2"/>
       <c r="B281" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" ht="36" customHeight="1">
+    <row r="282" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="2"/>
       <c r="B282" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" ht="36" customHeight="1">
+    <row r="283" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="2"/>
       <c r="B283" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" ht="36" customHeight="1">
+    <row r="284" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="2"/>
       <c r="B284" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" ht="36" customHeight="1">
+    <row r="285" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="2"/>
       <c r="B285" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" ht="36" customHeight="1">
+    <row r="286" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="2"/>
       <c r="B286" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" ht="36" customHeight="1">
+    <row r="287" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="2"/>
       <c r="B287" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" ht="36" customHeight="1">
+    <row r="288" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="2"/>
       <c r="B288" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" ht="36" customHeight="1">
+    <row r="289" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="2"/>
       <c r="B289" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" ht="36" customHeight="1">
+    <row r="290" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="2"/>
       <c r="B290" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" ht="36" customHeight="1">
+    <row r="291" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="2"/>
       <c r="B291" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" ht="36" customHeight="1">
+    <row r="292" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="2"/>
       <c r="B292" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10799,7 +10799,7 @@
       </c>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" ht="36" customHeight="1">
+    <row r="293" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="2"/>
       <c r="B293" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10831,7 +10831,7 @@
       </c>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" ht="36" customHeight="1">
+    <row r="294" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="2"/>
       <c r="B294" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" ht="36" customHeight="1">
+    <row r="295" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="2"/>
       <c r="B295" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" ht="36" customHeight="1">
+    <row r="296" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="2"/>
       <c r="B296" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" ht="36" customHeight="1">
+    <row r="297" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="2"/>
       <c r="B297" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10959,7 +10959,7 @@
       </c>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" ht="36" customHeight="1">
+    <row r="298" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="2"/>
       <c r="B298" s="3" t="str">
         <f t="shared" si="28"/>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" ht="36" customHeight="1">
+    <row r="299" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="2"/>
       <c r="B299" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" ht="36" customHeight="1">
+    <row r="300" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="2"/>
       <c r="B300" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" ht="36" customHeight="1">
+    <row r="301" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="2"/>
       <c r="B301" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" ht="36" customHeight="1">
+    <row r="302" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="2"/>
       <c r="B302" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11119,7 +11119,7 @@
       </c>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" ht="36" customHeight="1">
+    <row r="303" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="2"/>
       <c r="B303" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" ht="36" customHeight="1">
+    <row r="304" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="2"/>
       <c r="B304" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11183,7 +11183,7 @@
       </c>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" ht="36" customHeight="1">
+    <row r="305" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="2"/>
       <c r="B305" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" ht="36" customHeight="1">
+    <row r="306" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="2"/>
       <c r="B306" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" ht="36" customHeight="1">
+    <row r="307" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="2"/>
       <c r="B307" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" ht="36" customHeight="1">
+    <row r="308" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="2"/>
       <c r="B308" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11311,7 +11311,7 @@
       </c>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" ht="36" customHeight="1">
+    <row r="309" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="2"/>
       <c r="B309" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11343,7 +11343,7 @@
       </c>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" ht="36" customHeight="1">
+    <row r="310" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="2"/>
       <c r="B310" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11375,7 +11375,7 @@
       </c>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="36" customHeight="1">
+    <row r="311" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="2"/>
       <c r="B311" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="36" customHeight="1">
+    <row r="312" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="2"/>
       <c r="B312" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11439,7 +11439,7 @@
       </c>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="36" customHeight="1">
+    <row r="313" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="2"/>
       <c r="B313" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="36" customHeight="1">
+    <row r="314" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="2"/>
       <c r="B314" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="36" customHeight="1">
+    <row r="315" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="2"/>
       <c r="B315" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11535,7 +11535,7 @@
       </c>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="36" customHeight="1">
+    <row r="316" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="2"/>
       <c r="B316" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="36" customHeight="1">
+    <row r="317" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="2"/>
       <c r="B317" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11599,7 +11599,7 @@
       </c>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="36" customHeight="1">
+    <row r="318" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="2"/>
       <c r="B318" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="36" customHeight="1">
+    <row r="319" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="2"/>
       <c r="B319" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11663,7 +11663,7 @@
       </c>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="36" customHeight="1">
+    <row r="320" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="2"/>
       <c r="B320" s="3" t="str">
         <f t="shared" si="28"/>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" ht="36" customHeight="1">
+    <row r="321" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="2"/>
       <c r="B321" s="3" t="str">
         <f t="shared" ref="B321:B384" si="35">IFERROR("@" &amp; MID(A321, SEARCH("{", A321) + 1, SEARCH(",", A321) - SEARCH("{", A321) - 1), "")</f>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" ht="36" customHeight="1">
+    <row r="322" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="2"/>
       <c r="B322" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" ht="36" customHeight="1">
+    <row r="323" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="2"/>
       <c r="B323" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11791,7 +11791,7 @@
       </c>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" ht="36" customHeight="1">
+    <row r="324" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="2"/>
       <c r="B324" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" ht="36" customHeight="1">
+    <row r="325" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="2"/>
       <c r="B325" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" ht="36" customHeight="1">
+    <row r="326" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="2"/>
       <c r="B326" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" ht="36" customHeight="1">
+    <row r="327" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="2"/>
       <c r="B327" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" ht="36" customHeight="1">
+    <row r="328" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="2"/>
       <c r="B328" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" ht="36" customHeight="1">
+    <row r="329" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="2"/>
       <c r="B329" s="3" t="str">
         <f t="shared" si="35"/>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" ht="36" customHeight="1">
+    <row r="330" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="2"/>
       <c r="B330" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" ht="36" customHeight="1">
+    <row r="331" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="2"/>
       <c r="B331" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" ht="36" customHeight="1">
+    <row r="332" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="2"/>
       <c r="B332" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12079,7 +12079,7 @@
       </c>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" ht="36" customHeight="1">
+    <row r="333" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="2"/>
       <c r="B333" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" ht="36" customHeight="1">
+    <row r="334" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="2"/>
       <c r="B334" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" ht="36" customHeight="1">
+    <row r="335" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="2"/>
       <c r="B335" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12175,7 +12175,7 @@
       </c>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" ht="36" customHeight="1">
+    <row r="336" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="2"/>
       <c r="B336" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="36" customHeight="1">
+    <row r="337" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="2"/>
       <c r="B337" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="36" customHeight="1">
+    <row r="338" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="2"/>
       <c r="B338" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12271,7 +12271,7 @@
       </c>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" ht="36" customHeight="1">
+    <row r="339" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="2"/>
       <c r="B339" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12303,7 +12303,7 @@
       </c>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" ht="36" customHeight="1">
+    <row r="340" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="2"/>
       <c r="B340" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12335,7 +12335,7 @@
       </c>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" ht="36" customHeight="1">
+    <row r="341" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="2"/>
       <c r="B341" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" ht="36" customHeight="1">
+    <row r="342" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="2"/>
       <c r="B342" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" ht="36" customHeight="1">
+    <row r="343" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="2"/>
       <c r="B343" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" ht="36" customHeight="1">
+    <row r="344" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="2"/>
       <c r="B344" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" ht="36" customHeight="1">
+    <row r="345" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2"/>
       <c r="B345" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" ht="36" customHeight="1">
+    <row r="346" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="2"/>
       <c r="B346" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12527,7 +12527,7 @@
       </c>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" ht="36" customHeight="1">
+    <row r="347" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="2"/>
       <c r="B347" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12559,7 +12559,7 @@
       </c>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" ht="36" customHeight="1">
+    <row r="348" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="2"/>
       <c r="B348" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" ht="36" customHeight="1">
+    <row r="349" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="2"/>
       <c r="B349" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" ht="36" customHeight="1">
+    <row r="350" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="2"/>
       <c r="B350" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12655,7 +12655,7 @@
       </c>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" ht="36" customHeight="1">
+    <row r="351" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="2"/>
       <c r="B351" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12687,7 +12687,7 @@
       </c>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" ht="36" customHeight="1">
+    <row r="352" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="2"/>
       <c r="B352" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12719,7 +12719,7 @@
       </c>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" ht="36" customHeight="1">
+    <row r="353" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="2"/>
       <c r="B353" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" ht="36" customHeight="1">
+    <row r="354" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="2"/>
       <c r="B354" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="1:9" ht="36" customHeight="1">
+    <row r="355" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="2"/>
       <c r="B355" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" ht="36" customHeight="1">
+    <row r="356" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="2"/>
       <c r="B356" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12847,7 +12847,7 @@
       </c>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9" ht="36" customHeight="1">
+    <row r="357" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="2"/>
       <c r="B357" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9" ht="36" customHeight="1">
+    <row r="358" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="2"/>
       <c r="B358" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="1:9" ht="36" customHeight="1">
+    <row r="359" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="2"/>
       <c r="B359" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12943,7 +12943,7 @@
       </c>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" ht="36" customHeight="1">
+    <row r="360" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="2"/>
       <c r="B360" s="3" t="str">
         <f t="shared" si="35"/>
@@ -12975,7 +12975,7 @@
       </c>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9" ht="36" customHeight="1">
+    <row r="361" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="2"/>
       <c r="B361" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13007,7 +13007,7 @@
       </c>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9" ht="36" customHeight="1">
+    <row r="362" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="2"/>
       <c r="B362" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9" ht="36" customHeight="1">
+    <row r="363" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="2"/>
       <c r="B363" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13071,7 +13071,7 @@
       </c>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="36" customHeight="1">
+    <row r="364" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="2"/>
       <c r="B364" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="36" customHeight="1">
+    <row r="365" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="2"/>
       <c r="B365" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13135,7 +13135,7 @@
       </c>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="36" customHeight="1">
+    <row r="366" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="2"/>
       <c r="B366" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13167,7 +13167,7 @@
       </c>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="36" customHeight="1">
+    <row r="367" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="2"/>
       <c r="B367" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="36" customHeight="1">
+    <row r="368" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="2"/>
       <c r="B368" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9" ht="36" customHeight="1">
+    <row r="369" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="2"/>
       <c r="B369" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="36" customHeight="1">
+    <row r="370" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="2"/>
       <c r="B370" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13295,7 +13295,7 @@
       </c>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="36" customHeight="1">
+    <row r="371" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="2"/>
       <c r="B371" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="1:9" ht="36" customHeight="1">
+    <row r="372" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="2"/>
       <c r="B372" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13359,7 +13359,7 @@
       </c>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="1:9" ht="36" customHeight="1">
+    <row r="373" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="2"/>
       <c r="B373" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="1:9" ht="36" customHeight="1">
+    <row r="374" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="2"/>
       <c r="B374" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="1:9" ht="36" customHeight="1">
+    <row r="375" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="2"/>
       <c r="B375" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="1:9" ht="36" customHeight="1">
+    <row r="376" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="2"/>
       <c r="B376" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="1:9" ht="36" customHeight="1">
+    <row r="377" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="2"/>
       <c r="B377" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13519,7 +13519,7 @@
       </c>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="1:9" ht="36" customHeight="1">
+    <row r="378" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="2"/>
       <c r="B378" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="1:9" ht="36" customHeight="1">
+    <row r="379" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="2"/>
       <c r="B379" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="1:9" ht="36" customHeight="1">
+    <row r="380" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="2"/>
       <c r="B380" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13615,7 +13615,7 @@
       </c>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="1:9" ht="36" customHeight="1">
+    <row r="381" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="2"/>
       <c r="B381" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="1:9" ht="36" customHeight="1">
+    <row r="382" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="2"/>
       <c r="B382" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9" ht="36" customHeight="1">
+    <row r="383" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="2"/>
       <c r="B383" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9" ht="36" customHeight="1">
+    <row r="384" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="2"/>
       <c r="B384" s="3" t="str">
         <f t="shared" si="35"/>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" ht="36" customHeight="1">
+    <row r="385" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="2"/>
       <c r="B385" s="3" t="str">
         <f t="shared" ref="B385:B448" si="42">IFERROR("@" &amp; MID(A385, SEARCH("{", A385) + 1, SEARCH(",", A385) - SEARCH("{", A385) - 1), "")</f>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" ht="36" customHeight="1">
+    <row r="386" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="2"/>
       <c r="B386" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" ht="36" customHeight="1">
+    <row r="387" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="2"/>
       <c r="B387" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13839,7 +13839,7 @@
       </c>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="1:9" ht="36" customHeight="1">
+    <row r="388" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="2"/>
       <c r="B388" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="1:9" ht="36" customHeight="1">
+    <row r="389" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="2"/>
       <c r="B389" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="1:9" ht="36" customHeight="1">
+    <row r="390" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="2"/>
       <c r="B390" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13935,7 +13935,7 @@
       </c>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="1:9" ht="36" customHeight="1">
+    <row r="391" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="2"/>
       <c r="B391" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="1:9" ht="36" customHeight="1">
+    <row r="392" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="2"/>
       <c r="B392" s="3" t="str">
         <f t="shared" si="42"/>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="1:9" ht="36" customHeight="1">
+    <row r="393" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="2"/>
       <c r="B393" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="1:9" ht="36" customHeight="1">
+    <row r="394" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="2"/>
       <c r="B394" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14063,7 +14063,7 @@
       </c>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="1:9" ht="36" customHeight="1">
+    <row r="395" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="2"/>
       <c r="B395" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" ht="36" customHeight="1">
+    <row r="396" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="2"/>
       <c r="B396" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9" ht="36" customHeight="1">
+    <row r="397" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="2"/>
       <c r="B397" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14159,7 +14159,7 @@
       </c>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9" ht="36" customHeight="1">
+    <row r="398" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="2"/>
       <c r="B398" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9" ht="36" customHeight="1">
+    <row r="399" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="2"/>
       <c r="B399" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" ht="36" customHeight="1">
+    <row r="400" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="2"/>
       <c r="B400" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14255,7 +14255,7 @@
       </c>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="36" customHeight="1">
+    <row r="401" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="2"/>
       <c r="B401" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="36" customHeight="1">
+    <row r="402" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="2"/>
       <c r="B402" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="36" customHeight="1">
+    <row r="403" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="2"/>
       <c r="B403" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14351,7 +14351,7 @@
       </c>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="36" customHeight="1">
+    <row r="404" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="2"/>
       <c r="B404" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="36" customHeight="1">
+    <row r="405" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="2"/>
       <c r="B405" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="36" customHeight="1">
+    <row r="406" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="2"/>
       <c r="B406" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="36" customHeight="1">
+    <row r="407" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="2"/>
       <c r="B407" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="36" customHeight="1">
+    <row r="408" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="2"/>
       <c r="B408" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14511,7 +14511,7 @@
       </c>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="36" customHeight="1">
+    <row r="409" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="2"/>
       <c r="B409" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14543,7 +14543,7 @@
       </c>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="36" customHeight="1">
+    <row r="410" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="2"/>
       <c r="B410" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14575,7 +14575,7 @@
       </c>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" ht="36" customHeight="1">
+    <row r="411" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="2"/>
       <c r="B411" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" ht="36" customHeight="1">
+    <row r="412" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="2"/>
       <c r="B412" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" ht="36" customHeight="1">
+    <row r="413" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="2"/>
       <c r="B413" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14671,7 +14671,7 @@
       </c>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" ht="36" customHeight="1">
+    <row r="414" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="2"/>
       <c r="B414" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14703,7 +14703,7 @@
       </c>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" ht="36" customHeight="1">
+    <row r="415" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="2"/>
       <c r="B415" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14735,7 +14735,7 @@
       </c>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" ht="36" customHeight="1">
+    <row r="416" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="2"/>
       <c r="B416" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14767,7 +14767,7 @@
       </c>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" ht="36" customHeight="1">
+    <row r="417" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="2"/>
       <c r="B417" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14799,7 +14799,7 @@
       </c>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" ht="36" customHeight="1">
+    <row r="418" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="2"/>
       <c r="B418" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" ht="36" customHeight="1">
+    <row r="419" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="2"/>
       <c r="B419" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" ht="36" customHeight="1">
+    <row r="420" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="2"/>
       <c r="B420" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" ht="36" customHeight="1">
+    <row r="421" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="2"/>
       <c r="B421" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14927,7 +14927,7 @@
       </c>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" ht="36" customHeight="1">
+    <row r="422" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="2"/>
       <c r="B422" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" ht="36" customHeight="1">
+    <row r="423" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="2"/>
       <c r="B423" s="3" t="str">
         <f t="shared" si="42"/>
@@ -14991,7 +14991,7 @@
       </c>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" ht="36" customHeight="1">
+    <row r="424" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="2"/>
       <c r="B424" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" ht="36" customHeight="1">
+    <row r="425" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="2"/>
       <c r="B425" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15055,7 +15055,7 @@
       </c>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" ht="36" customHeight="1">
+    <row r="426" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="2"/>
       <c r="B426" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" ht="36" customHeight="1">
+    <row r="427" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="2"/>
       <c r="B427" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15119,7 +15119,7 @@
       </c>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" ht="36" customHeight="1">
+    <row r="428" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="2"/>
       <c r="B428" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" ht="36" customHeight="1">
+    <row r="429" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="2"/>
       <c r="B429" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" ht="36" customHeight="1">
+    <row r="430" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="2"/>
       <c r="B430" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" ht="36" customHeight="1">
+    <row r="431" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="2"/>
       <c r="B431" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15247,7 +15247,7 @@
       </c>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" ht="36" customHeight="1">
+    <row r="432" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="2"/>
       <c r="B432" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" ht="36" customHeight="1">
+    <row r="433" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="2"/>
       <c r="B433" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9" ht="36" customHeight="1">
+    <row r="434" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="2"/>
       <c r="B434" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" ht="36" customHeight="1">
+    <row r="435" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="2"/>
       <c r="B435" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9" ht="36" customHeight="1">
+    <row r="436" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="2"/>
       <c r="B436" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="I436" s="1"/>
     </row>
-    <row r="437" spans="1:9" ht="36" customHeight="1">
+    <row r="437" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="2"/>
       <c r="B437" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15439,7 +15439,7 @@
       </c>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9" ht="36" customHeight="1">
+    <row r="438" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="2"/>
       <c r="B438" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15471,7 +15471,7 @@
       </c>
       <c r="I438" s="1"/>
     </row>
-    <row r="439" spans="1:9" ht="36" customHeight="1">
+    <row r="439" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="2"/>
       <c r="B439" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="I439" s="1"/>
     </row>
-    <row r="440" spans="1:9" ht="36" customHeight="1">
+    <row r="440" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="2"/>
       <c r="B440" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="I440" s="1"/>
     </row>
-    <row r="441" spans="1:9" ht="36" customHeight="1">
+    <row r="441" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="2"/>
       <c r="B441" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="I441" s="1"/>
     </row>
-    <row r="442" spans="1:9" ht="36" customHeight="1">
+    <row r="442" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="2"/>
       <c r="B442" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="I442" s="1"/>
     </row>
-    <row r="443" spans="1:9" ht="36" customHeight="1">
+    <row r="443" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="2"/>
       <c r="B443" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="I443" s="1"/>
     </row>
-    <row r="444" spans="1:9" ht="36" customHeight="1">
+    <row r="444" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="2"/>
       <c r="B444" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="I444" s="1"/>
     </row>
-    <row r="445" spans="1:9" ht="36" customHeight="1">
+    <row r="445" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="2"/>
       <c r="B445" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="I445" s="1"/>
     </row>
-    <row r="446" spans="1:9" ht="36" customHeight="1">
+    <row r="446" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="2"/>
       <c r="B446" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="I446" s="1"/>
     </row>
-    <row r="447" spans="1:9" ht="36" customHeight="1">
+    <row r="447" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="2"/>
       <c r="B447" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15759,7 +15759,7 @@
       </c>
       <c r="I447" s="1"/>
     </row>
-    <row r="448" spans="1:9" ht="36" customHeight="1">
+    <row r="448" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="2"/>
       <c r="B448" s="3" t="str">
         <f t="shared" si="42"/>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" ht="36" customHeight="1">
+    <row r="449" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="2"/>
       <c r="B449" s="3" t="str">
         <f t="shared" ref="B449:B507" si="49">IFERROR("@" &amp; MID(A449, SEARCH("{", A449) + 1, SEARCH(",", A449) - SEARCH("{", A449) - 1), "")</f>
@@ -15823,7 +15823,7 @@
       </c>
       <c r="I449" s="1"/>
     </row>
-    <row r="450" spans="1:9" ht="36" customHeight="1">
+    <row r="450" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="2"/>
       <c r="B450" s="3" t="str">
         <f t="shared" si="49"/>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="I450" s="1"/>
     </row>
-    <row r="451" spans="1:9" ht="36" customHeight="1">
+    <row r="451" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="2"/>
       <c r="B451" s="3" t="str">
         <f t="shared" si="49"/>
@@ -15887,7 +15887,7 @@
       </c>
       <c r="I451" s="1"/>
     </row>
-    <row r="452" spans="1:9" ht="36" customHeight="1">
+    <row r="452" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="2"/>
       <c r="B452" s="3" t="str">
         <f t="shared" si="49"/>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="I452" s="1"/>
     </row>
-    <row r="453" spans="1:9" ht="36" customHeight="1">
+    <row r="453" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="2"/>
       <c r="B453" s="3" t="str">
         <f t="shared" si="49"/>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="I453" s="1"/>
     </row>
-    <row r="454" spans="1:9" ht="36" customHeight="1">
+    <row r="454" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="2"/>
       <c r="B454" s="3" t="str">
         <f t="shared" si="49"/>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="I454" s="1"/>
     </row>
-    <row r="455" spans="1:9" ht="36" customHeight="1">
+    <row r="455" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="2"/>
       <c r="B455" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16015,7 +16015,7 @@
       </c>
       <c r="I455" s="1"/>
     </row>
-    <row r="456" spans="1:9" ht="36" customHeight="1">
+    <row r="456" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="2"/>
       <c r="B456" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I456" s="1"/>
     </row>
-    <row r="457" spans="1:9" ht="36" customHeight="1">
+    <row r="457" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="2"/>
       <c r="B457" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16079,7 +16079,7 @@
       </c>
       <c r="I457" s="1"/>
     </row>
-    <row r="458" spans="1:9" ht="36" customHeight="1">
+    <row r="458" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="2"/>
       <c r="B458" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="I458" s="1"/>
     </row>
-    <row r="459" spans="1:9" ht="36" customHeight="1">
+    <row r="459" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="2"/>
       <c r="B459" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="I459" s="1"/>
     </row>
-    <row r="460" spans="1:9" ht="36" customHeight="1">
+    <row r="460" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="2"/>
       <c r="B460" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="I460" s="1"/>
     </row>
-    <row r="461" spans="1:9" ht="36" customHeight="1">
+    <row r="461" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="2"/>
       <c r="B461" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16207,7 +16207,7 @@
       </c>
       <c r="I461" s="1"/>
     </row>
-    <row r="462" spans="1:9" ht="36" customHeight="1">
+    <row r="462" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="2"/>
       <c r="B462" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="I462" s="1"/>
     </row>
-    <row r="463" spans="1:9" ht="36" customHeight="1">
+    <row r="463" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="2"/>
       <c r="B463" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="I463" s="1"/>
     </row>
-    <row r="464" spans="1:9" ht="36" customHeight="1">
+    <row r="464" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="2"/>
       <c r="B464" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="I464" s="1"/>
     </row>
-    <row r="465" spans="1:9" ht="36" customHeight="1">
+    <row r="465" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="2"/>
       <c r="B465" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16335,7 +16335,7 @@
       </c>
       <c r="I465" s="1"/>
     </row>
-    <row r="466" spans="1:9" ht="36" customHeight="1">
+    <row r="466" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="2"/>
       <c r="B466" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="I466" s="1"/>
     </row>
-    <row r="467" spans="1:9" ht="36" customHeight="1">
+    <row r="467" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="2"/>
       <c r="B467" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="I467" s="1"/>
     </row>
-    <row r="468" spans="1:9" ht="36" customHeight="1">
+    <row r="468" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="2"/>
       <c r="B468" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="I468" s="1"/>
     </row>
-    <row r="469" spans="1:9" ht="36" customHeight="1">
+    <row r="469" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="2"/>
       <c r="B469" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16463,7 +16463,7 @@
       </c>
       <c r="I469" s="1"/>
     </row>
-    <row r="470" spans="1:9" ht="36" customHeight="1">
+    <row r="470" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="2"/>
       <c r="B470" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16495,7 +16495,7 @@
       </c>
       <c r="I470" s="1"/>
     </row>
-    <row r="471" spans="1:9" ht="36" customHeight="1">
+    <row r="471" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="2"/>
       <c r="B471" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16527,7 +16527,7 @@
       </c>
       <c r="I471" s="1"/>
     </row>
-    <row r="472" spans="1:9" ht="36" customHeight="1">
+    <row r="472" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="2"/>
       <c r="B472" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="I472" s="1"/>
     </row>
-    <row r="473" spans="1:9" ht="36" customHeight="1">
+    <row r="473" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="2"/>
       <c r="B473" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="I473" s="1"/>
     </row>
-    <row r="474" spans="1:9" ht="36" customHeight="1">
+    <row r="474" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="2"/>
       <c r="B474" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="I474" s="1"/>
     </row>
-    <row r="475" spans="1:9" ht="36" customHeight="1">
+    <row r="475" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="2"/>
       <c r="B475" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16655,7 +16655,7 @@
       </c>
       <c r="I475" s="1"/>
     </row>
-    <row r="476" spans="1:9" ht="36" customHeight="1">
+    <row r="476" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="2"/>
       <c r="B476" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16687,7 +16687,7 @@
       </c>
       <c r="I476" s="1"/>
     </row>
-    <row r="477" spans="1:9" ht="36" customHeight="1">
+    <row r="477" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="2"/>
       <c r="B477" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="I477" s="1"/>
     </row>
-    <row r="478" spans="1:9" ht="36" customHeight="1">
+    <row r="478" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="2"/>
       <c r="B478" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="I478" s="1"/>
     </row>
-    <row r="479" spans="1:9" ht="36" customHeight="1">
+    <row r="479" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="2"/>
       <c r="B479" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16783,7 +16783,7 @@
       </c>
       <c r="I479" s="1"/>
     </row>
-    <row r="480" spans="1:9" ht="36" customHeight="1">
+    <row r="480" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="2"/>
       <c r="B480" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16815,7 +16815,7 @@
       </c>
       <c r="I480" s="1"/>
     </row>
-    <row r="481" spans="1:9" ht="36" customHeight="1">
+    <row r="481" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="2"/>
       <c r="B481" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="I481" s="1"/>
     </row>
-    <row r="482" spans="1:9" ht="36" customHeight="1">
+    <row r="482" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="2"/>
       <c r="B482" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16879,7 +16879,7 @@
       </c>
       <c r="I482" s="1"/>
     </row>
-    <row r="483" spans="1:9" ht="36" customHeight="1">
+    <row r="483" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="2"/>
       <c r="B483" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16911,7 +16911,7 @@
       </c>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" ht="36" customHeight="1">
+    <row r="484" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="2"/>
       <c r="B484" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" ht="36" customHeight="1">
+    <row r="485" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="2"/>
       <c r="B485" s="3" t="str">
         <f t="shared" si="49"/>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" ht="36" customHeight="1">
+    <row r="486" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="2"/>
       <c r="B486" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17007,7 +17007,7 @@
       </c>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" ht="36" customHeight="1">
+    <row r="487" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="2"/>
       <c r="B487" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17039,7 +17039,7 @@
       </c>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" ht="36" customHeight="1">
+    <row r="488" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="2"/>
       <c r="B488" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17071,7 +17071,7 @@
       </c>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" ht="36" customHeight="1">
+    <row r="489" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="2"/>
       <c r="B489" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17103,7 +17103,7 @@
       </c>
       <c r="I489" s="1"/>
     </row>
-    <row r="490" spans="1:9" ht="36" customHeight="1">
+    <row r="490" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="2"/>
       <c r="B490" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="I490" s="1"/>
     </row>
-    <row r="491" spans="1:9" ht="36" customHeight="1">
+    <row r="491" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="2"/>
       <c r="B491" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="I491" s="1"/>
     </row>
-    <row r="492" spans="1:9" ht="36" customHeight="1">
+    <row r="492" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="2"/>
       <c r="B492" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17199,7 +17199,7 @@
       </c>
       <c r="I492" s="1"/>
     </row>
-    <row r="493" spans="1:9" ht="36" customHeight="1">
+    <row r="493" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="2"/>
       <c r="B493" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="I493" s="1"/>
     </row>
-    <row r="494" spans="1:9" ht="36" customHeight="1">
+    <row r="494" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="2"/>
       <c r="B494" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17263,7 +17263,7 @@
       </c>
       <c r="I494" s="1"/>
     </row>
-    <row r="495" spans="1:9" ht="36" customHeight="1">
+    <row r="495" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="2"/>
       <c r="B495" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17295,7 +17295,7 @@
       </c>
       <c r="I495" s="1"/>
     </row>
-    <row r="496" spans="1:9" ht="36" customHeight="1">
+    <row r="496" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="2"/>
       <c r="B496" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="I496" s="1"/>
     </row>
-    <row r="497" spans="1:9" ht="36" customHeight="1">
+    <row r="497" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="2"/>
       <c r="B497" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="I497" s="1"/>
     </row>
-    <row r="498" spans="1:9" ht="36" customHeight="1">
+    <row r="498" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="2"/>
       <c r="B498" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17391,7 +17391,7 @@
       </c>
       <c r="I498" s="1"/>
     </row>
-    <row r="499" spans="1:9" ht="36" customHeight="1">
+    <row r="499" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="2"/>
       <c r="B499" s="3" t="str">
         <f t="shared" si="49"/>
@@ -17423,7 +17423,7 @@
       </c>
       <c r="I499" s="1"/>
     </row>
-    <row r="500" spans="1:9" ht="36" customHeight="1">
+    <row r="500" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B500" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17445,7 +17445,7 @@
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="36" customHeight="1">
+    <row r="501" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B501" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17467,7 +17467,7 @@
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="36" customHeight="1">
+    <row r="502" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B502" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17489,7 +17489,7 @@
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="36" customHeight="1">
+    <row r="503" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B503" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17511,7 +17511,7 @@
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="36" customHeight="1">
+    <row r="504" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B504" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17533,7 +17533,7 @@
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="36" customHeight="1">
+    <row r="505" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B505" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17555,7 +17555,7 @@
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="36" customHeight="1">
+    <row r="506" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B506" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17577,7 +17577,7 @@
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="36" customHeight="1">
+    <row r="507" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B507" s="3" t="str">
         <f t="shared" si="49"/>
         <v/>
@@ -17629,13 +17629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="61" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J5:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
@@ -17654,7 +17654,7 @@
     <col min="18" max="18" width="126.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1">
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="161.25" customHeight="1">
+    <row r="3" spans="1:18" ht="161.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
@@ -17778,7 +17778,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="36" customHeight="1">
+    <row r="4" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="36" customHeight="1">
+    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="36" customHeight="1">
+    <row r="6" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
         <v>23</v>
       </c>
@@ -17880,7 +17880,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="36" customHeight="1">
+    <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
         <v>24</v>
       </c>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="36" customHeight="1">
+    <row r="8" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
         <v>25</v>
       </c>
@@ -17948,7 +17948,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="36" customHeight="1">
+    <row r="9" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
         <v>26</v>
       </c>
@@ -17982,7 +17982,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="36" customHeight="1">
+    <row r="10" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
@@ -18016,7 +18016,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="36" customHeight="1">
+    <row r="11" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="36" customHeight="1">
+    <row r="12" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
         <v>29</v>
       </c>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="36" customHeight="1">
+    <row r="13" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
@@ -18118,7 +18118,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="36" customHeight="1">
+    <row r="14" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
         <v>31</v>
       </c>
@@ -18152,7 +18152,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="36" customHeight="1">
+    <row r="15" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>32</v>
       </c>
@@ -18186,7 +18186,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="36" customHeight="1">
+    <row r="16" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="26" t="s">
         <v>33</v>
       </c>
@@ -18220,7 +18220,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="36" customHeight="1">
+    <row r="17" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
         <v>34</v>
       </c>
@@ -18254,7 +18254,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="36" customHeight="1">
+    <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="36" customHeight="1">
+    <row r="19" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
@@ -18322,7 +18322,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="36" customHeight="1">
+    <row r="20" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="36" customHeight="1">
+    <row r="21" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
@@ -18378,7 +18378,7 @@
       </c>
       <c r="F21" s="12" t="str">
         <f>IFERROR(IF(ISERROR(FIND("title =",A21)),"",MID(A21,FIND("title =",A21)+9,FIND("},",A21,FIND("title =",A21))-FIND("title =",A21)-9)),"")</f>
-        <v>Fitting Linear Mixed-Effects Models Using {lme4}</v>
+        <v>Fitting Linear Mixed-Effects Models Using {{lme4}}</v>
       </c>
       <c r="G21" s="14" t="str">
         <f t="shared" si="10"/>
@@ -18390,7 +18390,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="36" customHeight="1">
+    <row r="22" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17"/>
       <c r="B22" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18422,7 +18422,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="36" customHeight="1">
+    <row r="23" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17"/>
       <c r="B23" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18454,7 +18454,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="36" customHeight="1">
+    <row r="24" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17"/>
       <c r="B24" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="36" customHeight="1">
+    <row r="25" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17"/>
       <c r="B25" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="36" customHeight="1">
+    <row r="26" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17"/>
       <c r="B26" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18550,7 +18550,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="36" customHeight="1">
+    <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17"/>
       <c r="B27" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="36" customHeight="1">
+    <row r="28" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17"/>
       <c r="B28" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18614,7 +18614,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="36" customHeight="1">
+    <row r="29" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17"/>
       <c r="B29" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18646,7 +18646,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="36" customHeight="1">
+    <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17"/>
       <c r="B30" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18678,7 +18678,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="36" customHeight="1">
+    <row r="31" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17"/>
       <c r="B31" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="36" customHeight="1">
+    <row r="32" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17"/>
       <c r="B32" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18742,7 +18742,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="36" customHeight="1">
+    <row r="33" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17"/>
       <c r="B33" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18774,7 +18774,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="36" customHeight="1">
+    <row r="34" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17"/>
       <c r="B34" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18806,7 +18806,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="36" customHeight="1">
+    <row r="35" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17"/>
       <c r="B35" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18838,7 +18838,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="36" customHeight="1">
+    <row r="36" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="17"/>
       <c r="B36" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18870,7 +18870,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="36" customHeight="1">
+    <row r="37" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17"/>
       <c r="B37" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18902,7 +18902,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="36" customHeight="1">
+    <row r="38" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17"/>
       <c r="B38" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18934,7 +18934,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="36" customHeight="1">
+    <row r="39" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17"/>
       <c r="B39" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18966,7 +18966,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="36" customHeight="1">
+    <row r="40" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="17"/>
       <c r="B40" s="13" t="str">
         <f t="shared" si="0"/>
@@ -18998,7 +18998,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="36" customHeight="1">
+    <row r="41" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17"/>
       <c r="B41" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="36" customHeight="1">
+    <row r="42" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="17"/>
       <c r="B42" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19062,7 +19062,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="36" customHeight="1">
+    <row r="43" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17"/>
       <c r="B43" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19094,7 +19094,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="36" customHeight="1">
+    <row r="44" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="17"/>
       <c r="B44" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19126,7 +19126,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" ht="36" customHeight="1">
+    <row r="45" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17"/>
       <c r="B45" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19158,7 +19158,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="36" customHeight="1">
+    <row r="46" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17"/>
       <c r="B46" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="36" customHeight="1">
+    <row r="47" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="17"/>
       <c r="B47" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19222,7 +19222,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" ht="36" customHeight="1">
+    <row r="48" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17"/>
       <c r="B48" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="36" customHeight="1">
+    <row r="49" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17"/>
       <c r="B49" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" ht="36" customHeight="1">
+    <row r="50" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17"/>
       <c r="B50" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19318,7 +19318,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="36" customHeight="1">
+    <row r="51" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17"/>
       <c r="B51" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19350,7 +19350,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="36" customHeight="1">
+    <row r="52" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="17"/>
       <c r="B52" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19382,7 +19382,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="36" customHeight="1">
+    <row r="53" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17"/>
       <c r="B53" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19414,7 +19414,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1">
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17"/>
       <c r="B54" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19446,7 +19446,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" ht="36" customHeight="1">
+    <row r="55" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17"/>
       <c r="B55" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19478,7 +19478,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" ht="36" customHeight="1">
+    <row r="56" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17"/>
       <c r="B56" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19510,7 +19510,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" ht="36" customHeight="1">
+    <row r="57" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="17"/>
       <c r="B57" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" ht="36" customHeight="1">
+    <row r="58" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="17"/>
       <c r="B58" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19574,7 +19574,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" ht="36" customHeight="1">
+    <row r="59" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="17"/>
       <c r="B59" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" ht="36" customHeight="1">
+    <row r="60" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17"/>
       <c r="B60" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19638,7 +19638,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="36" customHeight="1">
+    <row r="61" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="17"/>
       <c r="B61" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19670,7 +19670,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="36" customHeight="1">
+    <row r="62" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17"/>
       <c r="B62" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="36" customHeight="1">
+    <row r="63" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="17"/>
       <c r="B63" s="13" t="str">
         <f t="shared" si="0"/>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="36" customHeight="1">
+    <row r="64" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17"/>
       <c r="B64" s="13" t="str">
         <f t="shared" ref="B64:B127" si="12">IFERROR("@" &amp; MID(A64, SEARCH("{", A64) + 1, SEARCH(",", A64) - SEARCH("{", A64) - 1), "")</f>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="36" customHeight="1">
+    <row r="65" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="17"/>
       <c r="B65" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19798,7 +19798,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" ht="36" customHeight="1">
+    <row r="66" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="17"/>
       <c r="B66" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19830,7 +19830,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="36" customHeight="1">
+    <row r="67" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="17"/>
       <c r="B67" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19862,7 +19862,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="36" customHeight="1">
+    <row r="68" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17"/>
       <c r="B68" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="36" customHeight="1">
+    <row r="69" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="17"/>
       <c r="B69" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19926,7 +19926,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="36" customHeight="1">
+    <row r="70" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="17"/>
       <c r="B70" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19958,7 +19958,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="36" customHeight="1">
+    <row r="71" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17"/>
       <c r="B71" s="13" t="str">
         <f t="shared" si="12"/>
@@ -19990,7 +19990,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" ht="36" customHeight="1">
+    <row r="72" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="17"/>
       <c r="B72" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" ht="36" customHeight="1">
+    <row r="73" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="17"/>
       <c r="B73" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20054,7 +20054,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" ht="36" customHeight="1">
+    <row r="74" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="17"/>
       <c r="B74" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20086,7 +20086,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" ht="36" customHeight="1">
+    <row r="75" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17"/>
       <c r="B75" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20118,7 +20118,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" ht="36" customHeight="1">
+    <row r="76" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="17"/>
       <c r="B76" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20150,7 +20150,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" ht="36" customHeight="1">
+    <row r="77" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="17"/>
       <c r="B77" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20182,7 +20182,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" ht="36" customHeight="1">
+    <row r="78" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="17"/>
       <c r="B78" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20214,7 +20214,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" ht="36" customHeight="1">
+    <row r="79" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="17"/>
       <c r="B79" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" ht="36" customHeight="1">
+    <row r="80" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="17"/>
       <c r="B80" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20278,7 +20278,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" ht="36" customHeight="1">
+    <row r="81" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17"/>
       <c r="B81" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20310,7 +20310,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" ht="36" customHeight="1">
+    <row r="82" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="17"/>
       <c r="B82" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" ht="36" customHeight="1">
+    <row r="83" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="17"/>
       <c r="B83" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20374,7 +20374,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" ht="36" customHeight="1">
+    <row r="84" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17"/>
       <c r="B84" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" ht="36" customHeight="1">
+    <row r="85" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17"/>
       <c r="B85" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" ht="36" customHeight="1">
+    <row r="86" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="17"/>
       <c r="B86" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20470,7 +20470,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" ht="36" customHeight="1">
+    <row r="87" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="17"/>
       <c r="B87" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20502,7 +20502,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" ht="36" customHeight="1">
+    <row r="88" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="17"/>
       <c r="B88" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" ht="36" customHeight="1">
+    <row r="89" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="17"/>
       <c r="B89" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20566,7 +20566,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" ht="36" customHeight="1">
+    <row r="90" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="17"/>
       <c r="B90" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20598,7 +20598,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" ht="36" customHeight="1">
+    <row r="91" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="17"/>
       <c r="B91" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20630,7 +20630,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" ht="36" customHeight="1">
+    <row r="92" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="17"/>
       <c r="B92" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20662,7 +20662,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" ht="36" customHeight="1">
+    <row r="93" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="17"/>
       <c r="B93" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20694,7 +20694,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" ht="36" customHeight="1">
+    <row r="94" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="17"/>
       <c r="B94" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20726,7 +20726,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" ht="36" customHeight="1">
+    <row r="95" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="17"/>
       <c r="B95" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20758,7 +20758,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="36" customHeight="1">
+    <row r="96" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="17"/>
       <c r="B96" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20790,7 +20790,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="36" customHeight="1">
+    <row r="97" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="17"/>
       <c r="B97" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="36" customHeight="1">
+    <row r="98" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="17"/>
       <c r="B98" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20854,7 +20854,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="36" customHeight="1">
+    <row r="99" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="17"/>
       <c r="B99" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20886,7 +20886,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="36" customHeight="1">
+    <row r="100" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="17"/>
       <c r="B100" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20918,7 +20918,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="36" customHeight="1">
+    <row r="101" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="17"/>
       <c r="B101" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="36" customHeight="1">
+    <row r="102" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="17"/>
       <c r="B102" s="13" t="str">
         <f t="shared" si="12"/>
@@ -20982,7 +20982,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="36" customHeight="1">
+    <row r="103" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="17"/>
       <c r="B103" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21014,7 +21014,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="36" customHeight="1">
+    <row r="104" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="17"/>
       <c r="B104" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21046,7 +21046,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="36" customHeight="1">
+    <row r="105" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="17"/>
       <c r="B105" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21078,7 +21078,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="36" customHeight="1">
+    <row r="106" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="17"/>
       <c r="B106" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21110,7 +21110,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="36" customHeight="1">
+    <row r="107" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="17"/>
       <c r="B107" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21142,7 +21142,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="36" customHeight="1">
+    <row r="108" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="17"/>
       <c r="B108" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21174,7 +21174,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="36" customHeight="1">
+    <row r="109" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="17"/>
       <c r="B109" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="36" customHeight="1">
+    <row r="110" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="17"/>
       <c r="B110" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="36" customHeight="1">
+    <row r="111" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="17"/>
       <c r="B111" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="36" customHeight="1">
+    <row r="112" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="17"/>
       <c r="B112" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="36" customHeight="1">
+    <row r="113" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="17"/>
       <c r="B113" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21334,7 +21334,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="36" customHeight="1">
+    <row r="114" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="17"/>
       <c r="B114" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="36" customHeight="1">
+    <row r="115" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="17"/>
       <c r="B115" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21398,7 +21398,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="36" customHeight="1">
+    <row r="116" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="17"/>
       <c r="B116" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21430,7 +21430,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="36" customHeight="1">
+    <row r="117" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="17"/>
       <c r="B117" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21462,7 +21462,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="36" customHeight="1">
+    <row r="118" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="17"/>
       <c r="B118" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21494,7 +21494,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="36" customHeight="1">
+    <row r="119" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="17"/>
       <c r="B119" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21526,7 +21526,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="36" customHeight="1">
+    <row r="120" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="17"/>
       <c r="B120" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21558,7 +21558,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="36" customHeight="1">
+    <row r="121" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="17"/>
       <c r="B121" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="36" customHeight="1">
+    <row r="122" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="17"/>
       <c r="B122" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21622,7 +21622,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="36" customHeight="1">
+    <row r="123" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="17"/>
       <c r="B123" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21654,7 +21654,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="36" customHeight="1">
+    <row r="124" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="17"/>
       <c r="B124" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21686,7 +21686,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="36" customHeight="1">
+    <row r="125" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="17"/>
       <c r="B125" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21718,7 +21718,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="36" customHeight="1">
+    <row r="126" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="17"/>
       <c r="B126" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21750,7 +21750,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="36" customHeight="1">
+    <row r="127" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="17"/>
       <c r="B127" s="13" t="str">
         <f t="shared" si="12"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" ht="36" customHeight="1">
+    <row r="128" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="17"/>
       <c r="B128" s="13" t="str">
         <f t="shared" ref="B128:B191" si="19">IFERROR("@" &amp; MID(A128, SEARCH("{", A128) + 1, SEARCH(",", A128) - SEARCH("{", A128) - 1), "")</f>
@@ -21814,7 +21814,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" ht="36" customHeight="1">
+    <row r="129" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="17"/>
       <c r="B129" s="13" t="str">
         <f t="shared" si="19"/>
@@ -21846,7 +21846,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" ht="36" customHeight="1">
+    <row r="130" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="17"/>
       <c r="B130" s="13" t="str">
         <f t="shared" si="19"/>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" ht="36" customHeight="1">
+    <row r="131" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="17"/>
       <c r="B131" s="13" t="str">
         <f t="shared" si="19"/>
@@ -21910,7 +21910,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" ht="36" customHeight="1">
+    <row r="132" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="17"/>
       <c r="B132" s="13" t="str">
         <f t="shared" si="19"/>
@@ -21942,7 +21942,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" ht="36" customHeight="1">
+    <row r="133" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="17"/>
       <c r="B133" s="13" t="str">
         <f t="shared" si="19"/>
@@ -21974,7 +21974,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" ht="36" customHeight="1">
+    <row r="134" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="17"/>
       <c r="B134" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22006,7 +22006,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" ht="36" customHeight="1">
+    <row r="135" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="17"/>
       <c r="B135" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22038,7 +22038,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" ht="36" customHeight="1">
+    <row r="136" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="17"/>
       <c r="B136" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22070,7 +22070,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" ht="36" customHeight="1">
+    <row r="137" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="17"/>
       <c r="B137" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22102,7 +22102,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" ht="36" customHeight="1">
+    <row r="138" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="17"/>
       <c r="B138" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22134,7 +22134,7 @@
       </c>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="36" customHeight="1">
+    <row r="139" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="17"/>
       <c r="B139" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22166,7 +22166,7 @@
       </c>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="36" customHeight="1">
+    <row r="140" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="17"/>
       <c r="B140" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22198,7 +22198,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="36" customHeight="1">
+    <row r="141" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="17"/>
       <c r="B141" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="36" customHeight="1">
+    <row r="142" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="17"/>
       <c r="B142" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="36" customHeight="1">
+    <row r="143" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="17"/>
       <c r="B143" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22294,7 +22294,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="36" customHeight="1">
+    <row r="144" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="17"/>
       <c r="B144" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22326,7 +22326,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="36" customHeight="1">
+    <row r="145" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="17"/>
       <c r="B145" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="36" customHeight="1">
+    <row r="146" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="17"/>
       <c r="B146" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22390,7 +22390,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="36" customHeight="1">
+    <row r="147" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="17"/>
       <c r="B147" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22422,7 +22422,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="36" customHeight="1">
+    <row r="148" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="17"/>
       <c r="B148" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22454,7 +22454,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="36" customHeight="1">
+    <row r="149" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="17"/>
       <c r="B149" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22486,7 +22486,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="36" customHeight="1">
+    <row r="150" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="17"/>
       <c r="B150" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="36" customHeight="1">
+    <row r="151" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="17"/>
       <c r="B151" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22550,7 +22550,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="36" customHeight="1">
+    <row r="152" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="17"/>
       <c r="B152" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="36" customHeight="1">
+    <row r="153" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="17"/>
       <c r="B153" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22614,7 +22614,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="36" customHeight="1">
+    <row r="154" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="17"/>
       <c r="B154" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="36" customHeight="1">
+    <row r="155" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="17"/>
       <c r="B155" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22678,7 +22678,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="36" customHeight="1">
+    <row r="156" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="17"/>
       <c r="B156" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22710,7 +22710,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="36" customHeight="1">
+    <row r="157" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="17"/>
       <c r="B157" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22742,7 +22742,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="36" customHeight="1">
+    <row r="158" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="17"/>
       <c r="B158" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22774,7 +22774,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="36" customHeight="1">
+    <row r="159" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="17"/>
       <c r="B159" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" ht="36" customHeight="1">
+    <row r="160" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="17"/>
       <c r="B160" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22838,7 +22838,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" ht="36" customHeight="1">
+    <row r="161" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="17"/>
       <c r="B161" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22870,7 +22870,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" ht="36" customHeight="1">
+    <row r="162" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="17"/>
       <c r="B162" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22902,7 +22902,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="36" customHeight="1">
+    <row r="163" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="17"/>
       <c r="B163" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="36" customHeight="1">
+    <row r="164" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="17"/>
       <c r="B164" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="36" customHeight="1">
+    <row r="165" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="17"/>
       <c r="B165" s="13" t="str">
         <f t="shared" si="19"/>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="36" customHeight="1">
+    <row r="166" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="17"/>
       <c r="B166" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23030,7 +23030,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" ht="36" customHeight="1">
+    <row r="167" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="17"/>
       <c r="B167" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" ht="36" customHeight="1">
+    <row r="168" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="17"/>
       <c r="B168" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23094,7 +23094,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" ht="36" customHeight="1">
+    <row r="169" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="17"/>
       <c r="B169" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23126,7 +23126,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" ht="36" customHeight="1">
+    <row r="170" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="17"/>
       <c r="B170" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" ht="36" customHeight="1">
+    <row r="171" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="17"/>
       <c r="B171" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" ht="36" customHeight="1">
+    <row r="172" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="17"/>
       <c r="B172" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23222,7 +23222,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9" ht="36" customHeight="1">
+    <row r="173" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="17"/>
       <c r="B173" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23254,7 +23254,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9" ht="36" customHeight="1">
+    <row r="174" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="17"/>
       <c r="B174" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9" ht="36" customHeight="1">
+    <row r="175" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="17"/>
       <c r="B175" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9" ht="36" customHeight="1">
+    <row r="176" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="17"/>
       <c r="B176" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23350,7 +23350,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9" ht="36" customHeight="1">
+    <row r="177" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="17"/>
       <c r="B177" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23382,7 +23382,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9" ht="36" customHeight="1">
+    <row r="178" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="17"/>
       <c r="B178" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23414,7 +23414,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9" ht="36" customHeight="1">
+    <row r="179" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="17"/>
       <c r="B179" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23446,7 +23446,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9" ht="36" customHeight="1">
+    <row r="180" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="17"/>
       <c r="B180" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9" ht="36" customHeight="1">
+    <row r="181" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="17"/>
       <c r="B181" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23510,7 +23510,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9" ht="36" customHeight="1">
+    <row r="182" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="17"/>
       <c r="B182" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23542,7 +23542,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9" ht="36" customHeight="1">
+    <row r="183" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="17"/>
       <c r="B183" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23574,7 +23574,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9" ht="36" customHeight="1">
+    <row r="184" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="17"/>
       <c r="B184" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9" ht="36" customHeight="1">
+    <row r="185" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="17"/>
       <c r="B185" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23638,7 +23638,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9" ht="36" customHeight="1">
+    <row r="186" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="17"/>
       <c r="B186" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23670,7 +23670,7 @@
       </c>
       <c r="I186" s="1"/>
     </row>
-    <row r="187" spans="1:9" ht="36" customHeight="1">
+    <row r="187" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="17"/>
       <c r="B187" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23702,7 +23702,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9" ht="36" customHeight="1">
+    <row r="188" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="17"/>
       <c r="B188" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23734,7 +23734,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9" ht="36" customHeight="1">
+    <row r="189" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="17"/>
       <c r="B189" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9" ht="36" customHeight="1">
+    <row r="190" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="17"/>
       <c r="B190" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23798,7 +23798,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9" ht="36" customHeight="1">
+    <row r="191" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="17"/>
       <c r="B191" s="13" t="str">
         <f t="shared" si="19"/>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9" ht="36" customHeight="1">
+    <row r="192" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="17"/>
       <c r="B192" s="13" t="str">
         <f t="shared" ref="B192:B255" si="26">IFERROR("@" &amp; MID(A192, SEARCH("{", A192) + 1, SEARCH(",", A192) - SEARCH("{", A192) - 1), "")</f>
@@ -23862,7 +23862,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9" ht="36" customHeight="1">
+    <row r="193" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="17"/>
       <c r="B193" s="13" t="str">
         <f t="shared" si="26"/>
@@ -23894,7 +23894,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9" ht="36" customHeight="1">
+    <row r="194" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="17"/>
       <c r="B194" s="13" t="str">
         <f t="shared" si="26"/>
@@ -23926,7 +23926,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9" ht="36" customHeight="1">
+    <row r="195" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="17"/>
       <c r="B195" s="13" t="str">
         <f t="shared" si="26"/>
@@ -23958,7 +23958,7 @@
       </c>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9" ht="36" customHeight="1">
+    <row r="196" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="17"/>
       <c r="B196" s="13" t="str">
         <f t="shared" si="26"/>
@@ -23990,7 +23990,7 @@
       </c>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9" ht="36" customHeight="1">
+    <row r="197" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="17"/>
       <c r="B197" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9" ht="36" customHeight="1">
+    <row r="198" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="17"/>
       <c r="B198" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24054,7 +24054,7 @@
       </c>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9" ht="36" customHeight="1">
+    <row r="199" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="17"/>
       <c r="B199" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24086,7 +24086,7 @@
       </c>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9" ht="36" customHeight="1">
+    <row r="200" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="17"/>
       <c r="B200" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="I200" s="1"/>
     </row>
-    <row r="201" spans="1:9" ht="36" customHeight="1">
+    <row r="201" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="17"/>
       <c r="B201" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9" ht="36" customHeight="1">
+    <row r="202" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="17"/>
       <c r="B202" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24182,7 +24182,7 @@
       </c>
       <c r="I202" s="1"/>
     </row>
-    <row r="203" spans="1:9" ht="36" customHeight="1">
+    <row r="203" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="17"/>
       <c r="B203" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24214,7 +24214,7 @@
       </c>
       <c r="I203" s="1"/>
     </row>
-    <row r="204" spans="1:9" ht="36" customHeight="1">
+    <row r="204" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="17"/>
       <c r="B204" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24246,7 +24246,7 @@
       </c>
       <c r="I204" s="1"/>
     </row>
-    <row r="205" spans="1:9" ht="36" customHeight="1">
+    <row r="205" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="17"/>
       <c r="B205" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="I205" s="1"/>
     </row>
-    <row r="206" spans="1:9" ht="36" customHeight="1">
+    <row r="206" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="17"/>
       <c r="B206" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24310,7 +24310,7 @@
       </c>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9" ht="36" customHeight="1">
+    <row r="207" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="17"/>
       <c r="B207" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24342,7 +24342,7 @@
       </c>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9" ht="36" customHeight="1">
+    <row r="208" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="17"/>
       <c r="B208" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24374,7 +24374,7 @@
       </c>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9" ht="36" customHeight="1">
+    <row r="209" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="17"/>
       <c r="B209" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24406,7 +24406,7 @@
       </c>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9" ht="36" customHeight="1">
+    <row r="210" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="17"/>
       <c r="B210" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24438,7 +24438,7 @@
       </c>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9" ht="36" customHeight="1">
+    <row r="211" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="17"/>
       <c r="B211" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24470,7 +24470,7 @@
       </c>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9" ht="36" customHeight="1">
+    <row r="212" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="17"/>
       <c r="B212" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24502,7 +24502,7 @@
       </c>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9" ht="36" customHeight="1">
+    <row r="213" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="17"/>
       <c r="B213" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9" ht="36" customHeight="1">
+    <row r="214" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="17"/>
       <c r="B214" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9" ht="36" customHeight="1">
+    <row r="215" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="17"/>
       <c r="B215" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24598,7 +24598,7 @@
       </c>
       <c r="I215" s="1"/>
     </row>
-    <row r="216" spans="1:9" ht="36" customHeight="1">
+    <row r="216" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="17"/>
       <c r="B216" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24630,7 +24630,7 @@
       </c>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9" ht="36" customHeight="1">
+    <row r="217" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="17"/>
       <c r="B217" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24662,7 +24662,7 @@
       </c>
       <c r="I217" s="1"/>
     </row>
-    <row r="218" spans="1:9" ht="36" customHeight="1">
+    <row r="218" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="17"/>
       <c r="B218" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24694,7 +24694,7 @@
       </c>
       <c r="I218" s="1"/>
     </row>
-    <row r="219" spans="1:9" ht="36" customHeight="1">
+    <row r="219" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="17"/>
       <c r="B219" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24726,7 +24726,7 @@
       </c>
       <c r="I219" s="1"/>
     </row>
-    <row r="220" spans="1:9" ht="36" customHeight="1">
+    <row r="220" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="17"/>
       <c r="B220" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24758,7 +24758,7 @@
       </c>
       <c r="I220" s="1"/>
     </row>
-    <row r="221" spans="1:9" ht="36" customHeight="1">
+    <row r="221" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="17"/>
       <c r="B221" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24790,7 +24790,7 @@
       </c>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9" ht="36" customHeight="1">
+    <row r="222" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="17"/>
       <c r="B222" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24822,7 +24822,7 @@
       </c>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9" ht="36" customHeight="1">
+    <row r="223" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="17"/>
       <c r="B223" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24854,7 +24854,7 @@
       </c>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9" ht="36" customHeight="1">
+    <row r="224" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="17"/>
       <c r="B224" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24886,7 +24886,7 @@
       </c>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9" ht="36" customHeight="1">
+    <row r="225" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="17"/>
       <c r="B225" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24918,7 +24918,7 @@
       </c>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9" ht="36" customHeight="1">
+    <row r="226" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="17"/>
       <c r="B226" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24950,7 +24950,7 @@
       </c>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9" ht="36" customHeight="1">
+    <row r="227" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="17"/>
       <c r="B227" s="13" t="str">
         <f t="shared" si="26"/>
@@ -24982,7 +24982,7 @@
       </c>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9" ht="36" customHeight="1">
+    <row r="228" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="17"/>
       <c r="B228" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25014,7 +25014,7 @@
       </c>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9" ht="36" customHeight="1">
+    <row r="229" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="17"/>
       <c r="B229" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25046,7 +25046,7 @@
       </c>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9" ht="36" customHeight="1">
+    <row r="230" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="17"/>
       <c r="B230" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25078,7 +25078,7 @@
       </c>
       <c r="I230" s="1"/>
     </row>
-    <row r="231" spans="1:9" ht="36" customHeight="1">
+    <row r="231" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="17"/>
       <c r="B231" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25110,7 +25110,7 @@
       </c>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9" ht="36" customHeight="1">
+    <row r="232" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="17"/>
       <c r="B232" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25142,7 +25142,7 @@
       </c>
       <c r="I232" s="1"/>
     </row>
-    <row r="233" spans="1:9" ht="36" customHeight="1">
+    <row r="233" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="17"/>
       <c r="B233" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25174,7 +25174,7 @@
       </c>
       <c r="I233" s="1"/>
     </row>
-    <row r="234" spans="1:9" ht="36" customHeight="1">
+    <row r="234" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="17"/>
       <c r="B234" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25206,7 +25206,7 @@
       </c>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9" ht="36" customHeight="1">
+    <row r="235" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="17"/>
       <c r="B235" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25238,7 +25238,7 @@
       </c>
       <c r="I235" s="1"/>
     </row>
-    <row r="236" spans="1:9" ht="36" customHeight="1">
+    <row r="236" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="17"/>
       <c r="B236" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25270,7 +25270,7 @@
       </c>
       <c r="I236" s="1"/>
     </row>
-    <row r="237" spans="1:9" ht="36" customHeight="1">
+    <row r="237" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="17"/>
       <c r="B237" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25302,7 +25302,7 @@
       </c>
       <c r="I237" s="1"/>
     </row>
-    <row r="238" spans="1:9" ht="36" customHeight="1">
+    <row r="238" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="17"/>
       <c r="B238" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25334,7 +25334,7 @@
       </c>
       <c r="I238" s="1"/>
     </row>
-    <row r="239" spans="1:9" ht="36" customHeight="1">
+    <row r="239" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="17"/>
       <c r="B239" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="I239" s="1"/>
     </row>
-    <row r="240" spans="1:9" ht="36" customHeight="1">
+    <row r="240" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="17"/>
       <c r="B240" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9" ht="36" customHeight="1">
+    <row r="241" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="17"/>
       <c r="B241" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25430,7 +25430,7 @@
       </c>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9" ht="36" customHeight="1">
+    <row r="242" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="17"/>
       <c r="B242" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25462,7 +25462,7 @@
       </c>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9" ht="36" customHeight="1">
+    <row r="243" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="17"/>
       <c r="B243" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25494,7 +25494,7 @@
       </c>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9" ht="36" customHeight="1">
+    <row r="244" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="17"/>
       <c r="B244" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25526,7 +25526,7 @@
       </c>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9" ht="36" customHeight="1">
+    <row r="245" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="17"/>
       <c r="B245" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25558,7 +25558,7 @@
       </c>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9" ht="36" customHeight="1">
+    <row r="246" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="17"/>
       <c r="B246" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25590,7 +25590,7 @@
       </c>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9" ht="36" customHeight="1">
+    <row r="247" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="17"/>
       <c r="B247" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25622,7 +25622,7 @@
       </c>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9" ht="36" customHeight="1">
+    <row r="248" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="17"/>
       <c r="B248" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25654,7 +25654,7 @@
       </c>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9" ht="36" customHeight="1">
+    <row r="249" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="17"/>
       <c r="B249" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25686,7 +25686,7 @@
       </c>
       <c r="I249" s="1"/>
     </row>
-    <row r="250" spans="1:9" ht="36" customHeight="1">
+    <row r="250" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="17"/>
       <c r="B250" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9" ht="36" customHeight="1">
+    <row r="251" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="17"/>
       <c r="B251" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25750,7 +25750,7 @@
       </c>
       <c r="I251" s="1"/>
     </row>
-    <row r="252" spans="1:9" ht="36" customHeight="1">
+    <row r="252" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="17"/>
       <c r="B252" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25782,7 +25782,7 @@
       </c>
       <c r="I252" s="1"/>
     </row>
-    <row r="253" spans="1:9" ht="36" customHeight="1">
+    <row r="253" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="17"/>
       <c r="B253" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25814,7 +25814,7 @@
       </c>
       <c r="I253" s="1"/>
     </row>
-    <row r="254" spans="1:9" ht="36" customHeight="1">
+    <row r="254" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="17"/>
       <c r="B254" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25846,7 +25846,7 @@
       </c>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9" ht="36" customHeight="1">
+    <row r="255" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="17"/>
       <c r="B255" s="13" t="str">
         <f t="shared" si="26"/>
@@ -25878,7 +25878,7 @@
       </c>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9" ht="36" customHeight="1">
+    <row r="256" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="17"/>
       <c r="B256" s="13" t="str">
         <f t="shared" ref="B256:B319" si="33">IFERROR("@" &amp; MID(A256, SEARCH("{", A256) + 1, SEARCH(",", A256) - SEARCH("{", A256) - 1), "")</f>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9" ht="36" customHeight="1">
+    <row r="257" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="17"/>
       <c r="B257" s="13" t="str">
         <f t="shared" si="33"/>
@@ -25942,7 +25942,7 @@
       </c>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9" ht="36" customHeight="1">
+    <row r="258" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="17"/>
       <c r="B258" s="13" t="str">
         <f t="shared" si="33"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9" ht="36" customHeight="1">
+    <row r="259" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="17"/>
       <c r="B259" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9" ht="36" customHeight="1">
+    <row r="260" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="17"/>
       <c r="B260" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26038,7 +26038,7 @@
       </c>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9" ht="36" customHeight="1">
+    <row r="261" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="17"/>
       <c r="B261" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26070,7 +26070,7 @@
       </c>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9" ht="36" customHeight="1">
+    <row r="262" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="17"/>
       <c r="B262" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26102,7 +26102,7 @@
       </c>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9" ht="36" customHeight="1">
+    <row r="263" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="17"/>
       <c r="B263" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26134,7 +26134,7 @@
       </c>
       <c r="I263" s="1"/>
     </row>
-    <row r="264" spans="1:9" ht="36" customHeight="1">
+    <row r="264" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="17"/>
       <c r="B264" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26166,7 +26166,7 @@
       </c>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9" ht="36" customHeight="1">
+    <row r="265" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="17"/>
       <c r="B265" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26198,7 +26198,7 @@
       </c>
       <c r="I265" s="1"/>
     </row>
-    <row r="266" spans="1:9" ht="36" customHeight="1">
+    <row r="266" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="17"/>
       <c r="B266" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26230,7 +26230,7 @@
       </c>
       <c r="I266" s="1"/>
     </row>
-    <row r="267" spans="1:9" ht="36" customHeight="1">
+    <row r="267" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="17"/>
       <c r="B267" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26262,7 +26262,7 @@
       </c>
       <c r="I267" s="1"/>
     </row>
-    <row r="268" spans="1:9" ht="36" customHeight="1">
+    <row r="268" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="17"/>
       <c r="B268" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26294,7 +26294,7 @@
       </c>
       <c r="I268" s="1"/>
     </row>
-    <row r="269" spans="1:9" ht="36" customHeight="1">
+    <row r="269" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="17"/>
       <c r="B269" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26326,7 +26326,7 @@
       </c>
       <c r="I269" s="1"/>
     </row>
-    <row r="270" spans="1:9" ht="36" customHeight="1">
+    <row r="270" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="17"/>
       <c r="B270" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="I270" s="1"/>
     </row>
-    <row r="271" spans="1:9" ht="36" customHeight="1">
+    <row r="271" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="17"/>
       <c r="B271" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26390,7 +26390,7 @@
       </c>
       <c r="I271" s="1"/>
     </row>
-    <row r="272" spans="1:9" ht="36" customHeight="1">
+    <row r="272" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="17"/>
       <c r="B272" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="I272" s="1"/>
     </row>
-    <row r="273" spans="1:9" ht="36" customHeight="1">
+    <row r="273" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="17"/>
       <c r="B273" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26454,7 +26454,7 @@
       </c>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9" ht="36" customHeight="1">
+    <row r="274" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="17"/>
       <c r="B274" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26486,7 +26486,7 @@
       </c>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9" ht="36" customHeight="1">
+    <row r="275" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="17"/>
       <c r="B275" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26518,7 +26518,7 @@
       </c>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9" ht="36" customHeight="1">
+    <row r="276" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="17"/>
       <c r="B276" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26550,7 +26550,7 @@
       </c>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9" ht="36" customHeight="1">
+    <row r="277" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="17"/>
       <c r="B277" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26582,7 +26582,7 @@
       </c>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9" ht="36" customHeight="1">
+    <row r="278" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="17"/>
       <c r="B278" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26614,7 +26614,7 @@
       </c>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9" ht="36" customHeight="1">
+    <row r="279" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="17"/>
       <c r="B279" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26646,7 +26646,7 @@
       </c>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9" ht="36" customHeight="1">
+    <row r="280" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="17"/>
       <c r="B280" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26678,7 +26678,7 @@
       </c>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9" ht="36" customHeight="1">
+    <row r="281" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="17"/>
       <c r="B281" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26710,7 +26710,7 @@
       </c>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9" ht="36" customHeight="1">
+    <row r="282" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="17"/>
       <c r="B282" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26742,7 +26742,7 @@
       </c>
       <c r="I282" s="1"/>
     </row>
-    <row r="283" spans="1:9" ht="36" customHeight="1">
+    <row r="283" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="17"/>
       <c r="B283" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9" ht="36" customHeight="1">
+    <row r="284" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="17"/>
       <c r="B284" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26806,7 +26806,7 @@
       </c>
       <c r="I284" s="1"/>
     </row>
-    <row r="285" spans="1:9" ht="36" customHeight="1">
+    <row r="285" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="17"/>
       <c r="B285" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26838,7 +26838,7 @@
       </c>
       <c r="I285" s="1"/>
     </row>
-    <row r="286" spans="1:9" ht="36" customHeight="1">
+    <row r="286" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="17"/>
       <c r="B286" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26870,7 +26870,7 @@
       </c>
       <c r="I286" s="1"/>
     </row>
-    <row r="287" spans="1:9" ht="36" customHeight="1">
+    <row r="287" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="17"/>
       <c r="B287" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26902,7 +26902,7 @@
       </c>
       <c r="I287" s="1"/>
     </row>
-    <row r="288" spans="1:9" ht="36" customHeight="1">
+    <row r="288" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="17"/>
       <c r="B288" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26934,7 +26934,7 @@
       </c>
       <c r="I288" s="1"/>
     </row>
-    <row r="289" spans="1:9" ht="36" customHeight="1">
+    <row r="289" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="17"/>
       <c r="B289" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26966,7 +26966,7 @@
       </c>
       <c r="I289" s="1"/>
     </row>
-    <row r="290" spans="1:9" ht="36" customHeight="1">
+    <row r="290" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="17"/>
       <c r="B290" s="13" t="str">
         <f t="shared" si="33"/>
@@ -26998,7 +26998,7 @@
       </c>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9" ht="36" customHeight="1">
+    <row r="291" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="17"/>
       <c r="B291" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27030,7 +27030,7 @@
       </c>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9" ht="36" customHeight="1">
+    <row r="292" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="17"/>
       <c r="B292" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27062,7 +27062,7 @@
       </c>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9" ht="36" customHeight="1">
+    <row r="293" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="17"/>
       <c r="B293" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27094,7 +27094,7 @@
       </c>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9" ht="36" customHeight="1">
+    <row r="294" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="17"/>
       <c r="B294" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9" ht="36" customHeight="1">
+    <row r="295" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="17"/>
       <c r="B295" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27158,7 +27158,7 @@
       </c>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9" ht="36" customHeight="1">
+    <row r="296" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="17"/>
       <c r="B296" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27190,7 +27190,7 @@
       </c>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9" ht="36" customHeight="1">
+    <row r="297" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="17"/>
       <c r="B297" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27222,7 +27222,7 @@
       </c>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9" ht="36" customHeight="1">
+    <row r="298" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="17"/>
       <c r="B298" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9" ht="36" customHeight="1">
+    <row r="299" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="17"/>
       <c r="B299" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="I299" s="1"/>
     </row>
-    <row r="300" spans="1:9" ht="36" customHeight="1">
+    <row r="300" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="17"/>
       <c r="B300" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9" ht="36" customHeight="1">
+    <row r="301" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="17"/>
       <c r="B301" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27350,7 +27350,7 @@
       </c>
       <c r="I301" s="1"/>
     </row>
-    <row r="302" spans="1:9" ht="36" customHeight="1">
+    <row r="302" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="17"/>
       <c r="B302" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27382,7 +27382,7 @@
       </c>
       <c r="I302" s="1"/>
     </row>
-    <row r="303" spans="1:9" ht="36" customHeight="1">
+    <row r="303" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="17"/>
       <c r="B303" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27414,7 +27414,7 @@
       </c>
       <c r="I303" s="1"/>
     </row>
-    <row r="304" spans="1:9" ht="36" customHeight="1">
+    <row r="304" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="17"/>
       <c r="B304" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27446,7 +27446,7 @@
       </c>
       <c r="I304" s="1"/>
     </row>
-    <row r="305" spans="1:9" ht="36" customHeight="1">
+    <row r="305" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="17"/>
       <c r="B305" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27478,7 +27478,7 @@
       </c>
       <c r="I305" s="1"/>
     </row>
-    <row r="306" spans="1:9" ht="36" customHeight="1">
+    <row r="306" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="17"/>
       <c r="B306" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27510,7 +27510,7 @@
       </c>
       <c r="I306" s="1"/>
     </row>
-    <row r="307" spans="1:9" ht="36" customHeight="1">
+    <row r="307" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="17"/>
       <c r="B307" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27542,7 +27542,7 @@
       </c>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9" ht="36" customHeight="1">
+    <row r="308" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="17"/>
       <c r="B308" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27574,7 +27574,7 @@
       </c>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9" ht="36" customHeight="1">
+    <row r="309" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="17"/>
       <c r="B309" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27606,7 +27606,7 @@
       </c>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9" ht="36" customHeight="1">
+    <row r="310" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="17"/>
       <c r="B310" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27638,7 +27638,7 @@
       </c>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9" ht="36" customHeight="1">
+    <row r="311" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="17"/>
       <c r="B311" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27670,7 +27670,7 @@
       </c>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9" ht="36" customHeight="1">
+    <row r="312" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="17"/>
       <c r="B312" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27702,7 +27702,7 @@
       </c>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9" ht="36" customHeight="1">
+    <row r="313" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="17"/>
       <c r="B313" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27734,7 +27734,7 @@
       </c>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9" ht="36" customHeight="1">
+    <row r="314" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="17"/>
       <c r="B314" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27766,7 +27766,7 @@
       </c>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9" ht="36" customHeight="1">
+    <row r="315" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="17"/>
       <c r="B315" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27798,7 +27798,7 @@
       </c>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9" ht="36" customHeight="1">
+    <row r="316" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="17"/>
       <c r="B316" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27830,7 +27830,7 @@
       </c>
       <c r="I316" s="1"/>
     </row>
-    <row r="317" spans="1:9" ht="36" customHeight="1">
+    <row r="317" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="17"/>
       <c r="B317" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27862,7 +27862,7 @@
       </c>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9" ht="36" customHeight="1">
+    <row r="318" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="17"/>
       <c r="B318" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27894,7 +27894,7 @@
       </c>
       <c r="I318" s="1"/>
     </row>
-    <row r="319" spans="1:9" ht="36" customHeight="1">
+    <row r="319" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="17"/>
       <c r="B319" s="13" t="str">
         <f t="shared" si="33"/>
@@ -27926,7 +27926,7 @@
       </c>
       <c r="I319" s="1"/>
     </row>
-    <row r="320" spans="1:9" ht="36" customHeight="1">
+    <row r="320" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="17"/>
       <c r="B320" s="13" t="str">
         <f t="shared" ref="B320:B383" si="40">IFERROR("@" &amp; MID(A320, SEARCH("{", A320) + 1, SEARCH(",", A320) - SEARCH("{", A320) - 1), "")</f>
@@ -27958,7 +27958,7 @@
       </c>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9" ht="36" customHeight="1">
+    <row r="321" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="17"/>
       <c r="B321" s="13" t="str">
         <f t="shared" si="40"/>
@@ -27990,7 +27990,7 @@
       </c>
       <c r="I321" s="1"/>
     </row>
-    <row r="322" spans="1:9" ht="36" customHeight="1">
+    <row r="322" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="17"/>
       <c r="B322" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28022,7 +28022,7 @@
       </c>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9" ht="36" customHeight="1">
+    <row r="323" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="17"/>
       <c r="B323" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28054,7 +28054,7 @@
       </c>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9" ht="36" customHeight="1">
+    <row r="324" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="17"/>
       <c r="B324" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28086,7 +28086,7 @@
       </c>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9" ht="36" customHeight="1">
+    <row r="325" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="17"/>
       <c r="B325" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28118,7 +28118,7 @@
       </c>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9" ht="36" customHeight="1">
+    <row r="326" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="17"/>
       <c r="B326" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9" ht="36" customHeight="1">
+    <row r="327" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="17"/>
       <c r="B327" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9" ht="36" customHeight="1">
+    <row r="328" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="17"/>
       <c r="B328" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9" ht="36" customHeight="1">
+    <row r="329" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="17"/>
       <c r="B329" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28246,7 +28246,7 @@
       </c>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9" ht="36" customHeight="1">
+    <row r="330" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="17"/>
       <c r="B330" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28278,7 +28278,7 @@
       </c>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9" ht="36" customHeight="1">
+    <row r="331" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="17"/>
       <c r="B331" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28310,7 +28310,7 @@
       </c>
       <c r="I331" s="1"/>
     </row>
-    <row r="332" spans="1:9" ht="36" customHeight="1">
+    <row r="332" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="17"/>
       <c r="B332" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28342,7 +28342,7 @@
       </c>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9" ht="36" customHeight="1">
+    <row r="333" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="17"/>
       <c r="B333" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28374,7 +28374,7 @@
       </c>
       <c r="I333" s="1"/>
     </row>
-    <row r="334" spans="1:9" ht="36" customHeight="1">
+    <row r="334" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="17"/>
       <c r="B334" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28406,7 +28406,7 @@
       </c>
       <c r="I334" s="1"/>
     </row>
-    <row r="335" spans="1:9" ht="36" customHeight="1">
+    <row r="335" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="17"/>
       <c r="B335" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28438,7 +28438,7 @@
       </c>
       <c r="I335" s="1"/>
     </row>
-    <row r="336" spans="1:9" ht="36" customHeight="1">
+    <row r="336" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="17"/>
       <c r="B336" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28470,7 +28470,7 @@
       </c>
       <c r="I336" s="1"/>
     </row>
-    <row r="337" spans="1:9" ht="36" customHeight="1">
+    <row r="337" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="17"/>
       <c r="B337" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28502,7 +28502,7 @@
       </c>
       <c r="I337" s="1"/>
     </row>
-    <row r="338" spans="1:9" ht="36" customHeight="1">
+    <row r="338" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="17"/>
       <c r="B338" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28534,7 +28534,7 @@
       </c>
       <c r="I338" s="1"/>
     </row>
-    <row r="339" spans="1:9" ht="36" customHeight="1">
+    <row r="339" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="17"/>
       <c r="B339" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="I339" s="1"/>
     </row>
-    <row r="340" spans="1:9" ht="36" customHeight="1">
+    <row r="340" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="17"/>
       <c r="B340" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28598,7 +28598,7 @@
       </c>
       <c r="I340" s="1"/>
     </row>
-    <row r="341" spans="1:9" ht="36" customHeight="1">
+    <row r="341" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="17"/>
       <c r="B341" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28630,7 +28630,7 @@
       </c>
       <c r="I341" s="1"/>
     </row>
-    <row r="342" spans="1:9" ht="36" customHeight="1">
+    <row r="342" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="17"/>
       <c r="B342" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9" ht="36" customHeight="1">
+    <row r="343" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="17"/>
       <c r="B343" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28694,7 +28694,7 @@
       </c>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9" ht="36" customHeight="1">
+    <row r="344" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="17"/>
       <c r="B344" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28726,7 +28726,7 @@
       </c>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9" ht="36" customHeight="1">
+    <row r="345" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="17"/>
       <c r="B345" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28758,7 +28758,7 @@
       </c>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9" ht="36" customHeight="1">
+    <row r="346" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="17"/>
       <c r="B346" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28790,7 +28790,7 @@
       </c>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9" ht="36" customHeight="1">
+    <row r="347" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="17"/>
       <c r="B347" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28822,7 +28822,7 @@
       </c>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9" ht="36" customHeight="1">
+    <row r="348" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="17"/>
       <c r="B348" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28854,7 +28854,7 @@
       </c>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9" ht="36" customHeight="1">
+    <row r="349" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="17"/>
       <c r="B349" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28886,7 +28886,7 @@
       </c>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9" ht="36" customHeight="1">
+    <row r="350" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="17"/>
       <c r="B350" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28918,7 +28918,7 @@
       </c>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9" ht="36" customHeight="1">
+    <row r="351" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="17"/>
       <c r="B351" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="I351" s="1"/>
     </row>
-    <row r="352" spans="1:9" ht="36" customHeight="1">
+    <row r="352" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="17"/>
       <c r="B352" s="13" t="str">
         <f t="shared" si="40"/>
@@ -28982,7 +28982,7 @@
       </c>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9" ht="36" customHeight="1">
+    <row r="353" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="17"/>
       <c r="B353" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29014,7 +29014,7 @@
       </c>
       <c r="I353" s="1"/>
     </row>
-    <row r="354" spans="1:9" ht="36" customHeight="1">
+    <row r="354" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="17"/>
       <c r="B354" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29046,7 +29046,7 @@
       </c>
       <c r="I354" s="1"/>
     </row>
-    <row r="355" spans="1:9" ht="36" customHeight="1">
+    <row r="355" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="17"/>
       <c r="B355" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29078,7 +29078,7 @@
       </c>
       <c r="I355" s="1"/>
     </row>
-    <row r="356" spans="1:9" ht="36" customHeight="1">
+    <row r="356" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="17"/>
       <c r="B356" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9" ht="36" customHeight="1">
+    <row r="357" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="17"/>
       <c r="B357" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29142,7 +29142,7 @@
       </c>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9" ht="36" customHeight="1">
+    <row r="358" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="17"/>
       <c r="B358" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29174,7 +29174,7 @@
       </c>
       <c r="I358" s="1"/>
     </row>
-    <row r="359" spans="1:9" ht="36" customHeight="1">
+    <row r="359" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="17"/>
       <c r="B359" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29206,7 +29206,7 @@
       </c>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" ht="36" customHeight="1">
+    <row r="360" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="17"/>
       <c r="B360" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29238,7 +29238,7 @@
       </c>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9" ht="36" customHeight="1">
+    <row r="361" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="17"/>
       <c r="B361" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29270,7 +29270,7 @@
       </c>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9" ht="36" customHeight="1">
+    <row r="362" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="17"/>
       <c r="B362" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29302,7 +29302,7 @@
       </c>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9" ht="36" customHeight="1">
+    <row r="363" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="17"/>
       <c r="B363" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29334,7 +29334,7 @@
       </c>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9" ht="36" customHeight="1">
+    <row r="364" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="17"/>
       <c r="B364" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29366,7 +29366,7 @@
       </c>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9" ht="36" customHeight="1">
+    <row r="365" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="17"/>
       <c r="B365" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29398,7 +29398,7 @@
       </c>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9" ht="36" customHeight="1">
+    <row r="366" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="17"/>
       <c r="B366" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29430,7 +29430,7 @@
       </c>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9" ht="36" customHeight="1">
+    <row r="367" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="17"/>
       <c r="B367" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29462,7 +29462,7 @@
       </c>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9" ht="36" customHeight="1">
+    <row r="368" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="17"/>
       <c r="B368" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29494,7 +29494,7 @@
       </c>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9" ht="36" customHeight="1">
+    <row r="369" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="17"/>
       <c r="B369" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29526,7 +29526,7 @@
       </c>
       <c r="I369" s="1"/>
     </row>
-    <row r="370" spans="1:9" ht="36" customHeight="1">
+    <row r="370" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="17"/>
       <c r="B370" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29558,7 +29558,7 @@
       </c>
       <c r="I370" s="1"/>
     </row>
-    <row r="371" spans="1:9" ht="36" customHeight="1">
+    <row r="371" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="17"/>
       <c r="B371" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29590,7 +29590,7 @@
       </c>
       <c r="I371" s="1"/>
     </row>
-    <row r="372" spans="1:9" ht="36" customHeight="1">
+    <row r="372" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="17"/>
       <c r="B372" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29622,7 +29622,7 @@
       </c>
       <c r="I372" s="1"/>
     </row>
-    <row r="373" spans="1:9" ht="36" customHeight="1">
+    <row r="373" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="17"/>
       <c r="B373" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29654,7 +29654,7 @@
       </c>
       <c r="I373" s="1"/>
     </row>
-    <row r="374" spans="1:9" ht="36" customHeight="1">
+    <row r="374" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="17"/>
       <c r="B374" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29686,7 +29686,7 @@
       </c>
       <c r="I374" s="1"/>
     </row>
-    <row r="375" spans="1:9" ht="36" customHeight="1">
+    <row r="375" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="17"/>
       <c r="B375" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29718,7 +29718,7 @@
       </c>
       <c r="I375" s="1"/>
     </row>
-    <row r="376" spans="1:9" ht="36" customHeight="1">
+    <row r="376" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="17"/>
       <c r="B376" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29750,7 +29750,7 @@
       </c>
       <c r="I376" s="1"/>
     </row>
-    <row r="377" spans="1:9" ht="36" customHeight="1">
+    <row r="377" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="17"/>
       <c r="B377" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29782,7 +29782,7 @@
       </c>
       <c r="I377" s="1"/>
     </row>
-    <row r="378" spans="1:9" ht="36" customHeight="1">
+    <row r="378" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="17"/>
       <c r="B378" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29814,7 +29814,7 @@
       </c>
       <c r="I378" s="1"/>
     </row>
-    <row r="379" spans="1:9" ht="36" customHeight="1">
+    <row r="379" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="17"/>
       <c r="B379" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29846,7 +29846,7 @@
       </c>
       <c r="I379" s="1"/>
     </row>
-    <row r="380" spans="1:9" ht="36" customHeight="1">
+    <row r="380" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="17"/>
       <c r="B380" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29878,7 +29878,7 @@
       </c>
       <c r="I380" s="1"/>
     </row>
-    <row r="381" spans="1:9" ht="36" customHeight="1">
+    <row r="381" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="17"/>
       <c r="B381" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29910,7 +29910,7 @@
       </c>
       <c r="I381" s="1"/>
     </row>
-    <row r="382" spans="1:9" ht="36" customHeight="1">
+    <row r="382" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="17"/>
       <c r="B382" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29942,7 +29942,7 @@
       </c>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9" ht="36" customHeight="1">
+    <row r="383" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="17"/>
       <c r="B383" s="13" t="str">
         <f t="shared" si="40"/>
@@ -29974,7 +29974,7 @@
       </c>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9" ht="36" customHeight="1">
+    <row r="384" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="17"/>
       <c r="B384" s="13" t="str">
         <f t="shared" ref="B384:B447" si="47">IFERROR("@" &amp; MID(A384, SEARCH("{", A384) + 1, SEARCH(",", A384) - SEARCH("{", A384) - 1), "")</f>
@@ -30006,7 +30006,7 @@
       </c>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" ht="36" customHeight="1">
+    <row r="385" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="17"/>
       <c r="B385" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" ht="36" customHeight="1">
+    <row r="386" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="17"/>
       <c r="B386" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" ht="36" customHeight="1">
+    <row r="387" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="17"/>
       <c r="B387" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30102,7 +30102,7 @@
       </c>
       <c r="I387" s="1"/>
     </row>
-    <row r="388" spans="1:9" ht="36" customHeight="1">
+    <row r="388" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="17"/>
       <c r="B388" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30134,7 +30134,7 @@
       </c>
       <c r="I388" s="1"/>
     </row>
-    <row r="389" spans="1:9" ht="36" customHeight="1">
+    <row r="389" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="17"/>
       <c r="B389" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30166,7 +30166,7 @@
       </c>
       <c r="I389" s="1"/>
     </row>
-    <row r="390" spans="1:9" ht="36" customHeight="1">
+    <row r="390" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="17"/>
       <c r="B390" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30198,7 +30198,7 @@
       </c>
       <c r="I390" s="1"/>
     </row>
-    <row r="391" spans="1:9" ht="36" customHeight="1">
+    <row r="391" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="17"/>
       <c r="B391" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30230,7 +30230,7 @@
       </c>
       <c r="I391" s="1"/>
     </row>
-    <row r="392" spans="1:9" ht="36" customHeight="1">
+    <row r="392" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="17"/>
       <c r="B392" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30262,7 +30262,7 @@
       </c>
       <c r="I392" s="1"/>
     </row>
-    <row r="393" spans="1:9" ht="36" customHeight="1">
+    <row r="393" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="17"/>
       <c r="B393" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30294,7 +30294,7 @@
       </c>
       <c r="I393" s="1"/>
     </row>
-    <row r="394" spans="1:9" ht="36" customHeight="1">
+    <row r="394" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="17"/>
       <c r="B394" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="I394" s="1"/>
     </row>
-    <row r="395" spans="1:9" ht="36" customHeight="1">
+    <row r="395" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="17"/>
       <c r="B395" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30358,7 +30358,7 @@
       </c>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9" ht="36" customHeight="1">
+    <row r="396" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="17"/>
       <c r="B396" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30390,7 +30390,7 @@
       </c>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9" ht="36" customHeight="1">
+    <row r="397" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="17"/>
       <c r="B397" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30422,7 +30422,7 @@
       </c>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9" ht="36" customHeight="1">
+    <row r="398" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="17"/>
       <c r="B398" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30454,7 +30454,7 @@
       </c>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9" ht="36" customHeight="1">
+    <row r="399" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="17"/>
       <c r="B399" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30486,7 +30486,7 @@
       </c>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9" ht="36" customHeight="1">
+    <row r="400" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="17"/>
       <c r="B400" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30518,7 +30518,7 @@
       </c>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9" ht="36" customHeight="1">
+    <row r="401" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="17"/>
       <c r="B401" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30550,7 +30550,7 @@
       </c>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9" ht="36" customHeight="1">
+    <row r="402" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="17"/>
       <c r="B402" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30582,7 +30582,7 @@
       </c>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9" ht="36" customHeight="1">
+    <row r="403" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="17"/>
       <c r="B403" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30614,7 +30614,7 @@
       </c>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9" ht="36" customHeight="1">
+    <row r="404" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="17"/>
       <c r="B404" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30646,7 +30646,7 @@
       </c>
       <c r="I404" s="1"/>
     </row>
-    <row r="405" spans="1:9" ht="36" customHeight="1">
+    <row r="405" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="17"/>
       <c r="B405" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9" ht="36" customHeight="1">
+    <row r="406" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="17"/>
       <c r="B406" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30710,7 +30710,7 @@
       </c>
       <c r="I406" s="1"/>
     </row>
-    <row r="407" spans="1:9" ht="36" customHeight="1">
+    <row r="407" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="17"/>
       <c r="B407" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30742,7 +30742,7 @@
       </c>
       <c r="I407" s="1"/>
     </row>
-    <row r="408" spans="1:9" ht="36" customHeight="1">
+    <row r="408" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="17"/>
       <c r="B408" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30774,7 +30774,7 @@
       </c>
       <c r="I408" s="1"/>
     </row>
-    <row r="409" spans="1:9" ht="36" customHeight="1">
+    <row r="409" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="17"/>
       <c r="B409" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30806,7 +30806,7 @@
       </c>
       <c r="I409" s="1"/>
     </row>
-    <row r="410" spans="1:9" ht="36" customHeight="1">
+    <row r="410" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="17"/>
       <c r="B410" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30838,7 +30838,7 @@
       </c>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9" ht="36" customHeight="1">
+    <row r="411" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="17"/>
       <c r="B411" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30870,7 +30870,7 @@
       </c>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9" ht="36" customHeight="1">
+    <row r="412" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="17"/>
       <c r="B412" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9" ht="36" customHeight="1">
+    <row r="413" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="17"/>
       <c r="B413" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30934,7 +30934,7 @@
       </c>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9" ht="36" customHeight="1">
+    <row r="414" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="17"/>
       <c r="B414" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30966,7 +30966,7 @@
       </c>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9" ht="36" customHeight="1">
+    <row r="415" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="17"/>
       <c r="B415" s="13" t="str">
         <f t="shared" si="47"/>
@@ -30998,7 +30998,7 @@
       </c>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9" ht="36" customHeight="1">
+    <row r="416" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="17"/>
       <c r="B416" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31030,7 +31030,7 @@
       </c>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9" ht="36" customHeight="1">
+    <row r="417" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="17"/>
       <c r="B417" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31062,7 +31062,7 @@
       </c>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9" ht="36" customHeight="1">
+    <row r="418" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="17"/>
       <c r="B418" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31094,7 +31094,7 @@
       </c>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9" ht="36" customHeight="1">
+    <row r="419" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="17"/>
       <c r="B419" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31126,7 +31126,7 @@
       </c>
       <c r="I419" s="1"/>
     </row>
-    <row r="420" spans="1:9" ht="36" customHeight="1">
+    <row r="420" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="17"/>
       <c r="B420" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31158,7 +31158,7 @@
       </c>
       <c r="I420" s="1"/>
     </row>
-    <row r="421" spans="1:9" ht="36" customHeight="1">
+    <row r="421" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="17"/>
       <c r="B421" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31190,7 +31190,7 @@
       </c>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9" ht="36" customHeight="1">
+    <row r="422" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="17"/>
       <c r="B422" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31222,7 +31222,7 @@
       </c>
       <c r="I422" s="1"/>
     </row>
-    <row r="423" spans="1:9" ht="36" customHeight="1">
+    <row r="423" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="17"/>
       <c r="B423" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31254,7 +31254,7 @@
       </c>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9" ht="36" customHeight="1">
+    <row r="424" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="17"/>
       <c r="B424" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31286,7 +31286,7 @@
       </c>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9" ht="36" customHeight="1">
+    <row r="425" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="17"/>
       <c r="B425" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31318,7 +31318,7 @@
       </c>
       <c r="I425" s="1"/>
     </row>
-    <row r="426" spans="1:9" ht="36" customHeight="1">
+    <row r="426" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="17"/>
       <c r="B426" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31350,7 +31350,7 @@
       </c>
       <c r="I426" s="1"/>
     </row>
-    <row r="427" spans="1:9" ht="36" customHeight="1">
+    <row r="427" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="17"/>
       <c r="B427" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31382,7 +31382,7 @@
       </c>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9" ht="36" customHeight="1">
+    <row r="428" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="17"/>
       <c r="B428" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31414,7 +31414,7 @@
       </c>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9" ht="36" customHeight="1">
+    <row r="429" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="17"/>
       <c r="B429" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9" ht="36" customHeight="1">
+    <row r="430" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="17"/>
       <c r="B430" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31478,7 +31478,7 @@
       </c>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9" ht="36" customHeight="1">
+    <row r="431" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="17"/>
       <c r="B431" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31510,7 +31510,7 @@
       </c>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9" ht="36" customHeight="1">
+    <row r="432" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="17"/>
       <c r="B432" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31542,7 +31542,7 @@
       </c>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9" ht="36" customHeight="1">
+    <row r="433" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="17"/>
       <c r="B433" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31574,7 +31574,7 @@
       </c>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9" ht="36" customHeight="1">
+    <row r="434" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="17"/>
       <c r="B434" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31606,7 +31606,7 @@
       </c>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9" ht="36" customHeight="1">
+    <row r="435" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="17"/>
       <c r="B435" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31638,7 +31638,7 @@
       </c>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9" ht="36" customHeight="1">
+    <row r="436" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="17"/>
       <c r="B436" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31670,7 +31670,7 @@
       </c>
       <c r="I436" s="1"/>
     </row>
-    <row r="437" spans="1:9" ht="36" customHeight="1">
+    <row r="437" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="17"/>
       <c r="B437" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31702,7 +31702,7 @@
       </c>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9" ht="36" customHeight="1">
+    <row r="438" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="17"/>
       <c r="B438" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31734,7 +31734,7 @@
       </c>
       <c r="I438" s="1"/>
     </row>
-    <row r="439" spans="1:9" ht="36" customHeight="1">
+    <row r="439" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="17"/>
       <c r="B439" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31766,7 +31766,7 @@
       </c>
       <c r="I439" s="1"/>
     </row>
-    <row r="440" spans="1:9" ht="36" customHeight="1">
+    <row r="440" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="17"/>
       <c r="B440" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31798,7 +31798,7 @@
       </c>
       <c r="I440" s="1"/>
     </row>
-    <row r="441" spans="1:9" ht="36" customHeight="1">
+    <row r="441" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="17"/>
       <c r="B441" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31830,7 +31830,7 @@
       </c>
       <c r="I441" s="1"/>
     </row>
-    <row r="442" spans="1:9" ht="36" customHeight="1">
+    <row r="442" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="17"/>
       <c r="B442" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31862,7 +31862,7 @@
       </c>
       <c r="I442" s="1"/>
     </row>
-    <row r="443" spans="1:9" ht="36" customHeight="1">
+    <row r="443" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="17"/>
       <c r="B443" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31894,7 +31894,7 @@
       </c>
       <c r="I443" s="1"/>
     </row>
-    <row r="444" spans="1:9" ht="36" customHeight="1">
+    <row r="444" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="17"/>
       <c r="B444" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31926,7 +31926,7 @@
       </c>
       <c r="I444" s="1"/>
     </row>
-    <row r="445" spans="1:9" ht="36" customHeight="1">
+    <row r="445" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="17"/>
       <c r="B445" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="I445" s="1"/>
     </row>
-    <row r="446" spans="1:9" ht="36" customHeight="1">
+    <row r="446" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="17"/>
       <c r="B446" s="13" t="str">
         <f t="shared" si="47"/>
@@ -31990,7 +31990,7 @@
       </c>
       <c r="I446" s="1"/>
     </row>
-    <row r="447" spans="1:9" ht="36" customHeight="1">
+    <row r="447" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="17"/>
       <c r="B447" s="13" t="str">
         <f t="shared" si="47"/>
@@ -32022,7 +32022,7 @@
       </c>
       <c r="I447" s="1"/>
     </row>
-    <row r="448" spans="1:9" ht="36" customHeight="1">
+    <row r="448" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="17"/>
       <c r="B448" s="13" t="str">
         <f t="shared" ref="B448:B496" si="54">IFERROR("@" &amp; MID(A448, SEARCH("{", A448) + 1, SEARCH(",", A448) - SEARCH("{", A448) - 1), "")</f>
@@ -32054,7 +32054,7 @@
       </c>
       <c r="I448" s="1"/>
     </row>
-    <row r="449" spans="1:9" ht="36" customHeight="1">
+    <row r="449" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="17"/>
       <c r="B449" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32086,7 +32086,7 @@
       </c>
       <c r="I449" s="1"/>
     </row>
-    <row r="450" spans="1:9" ht="36" customHeight="1">
+    <row r="450" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="17"/>
       <c r="B450" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32118,7 +32118,7 @@
       </c>
       <c r="I450" s="1"/>
     </row>
-    <row r="451" spans="1:9" ht="36" customHeight="1">
+    <row r="451" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="17"/>
       <c r="B451" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32150,7 +32150,7 @@
       </c>
       <c r="I451" s="1"/>
     </row>
-    <row r="452" spans="1:9" ht="36" customHeight="1">
+    <row r="452" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="17"/>
       <c r="B452" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32182,7 +32182,7 @@
       </c>
       <c r="I452" s="1"/>
     </row>
-    <row r="453" spans="1:9" ht="36" customHeight="1">
+    <row r="453" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="17"/>
       <c r="B453" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32214,7 +32214,7 @@
       </c>
       <c r="I453" s="1"/>
     </row>
-    <row r="454" spans="1:9" ht="36" customHeight="1">
+    <row r="454" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="17"/>
       <c r="B454" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32246,7 +32246,7 @@
       </c>
       <c r="I454" s="1"/>
     </row>
-    <row r="455" spans="1:9" ht="36" customHeight="1">
+    <row r="455" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="17"/>
       <c r="B455" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="I455" s="1"/>
     </row>
-    <row r="456" spans="1:9" ht="36" customHeight="1">
+    <row r="456" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="17"/>
       <c r="B456" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32310,7 +32310,7 @@
       </c>
       <c r="I456" s="1"/>
     </row>
-    <row r="457" spans="1:9" ht="36" customHeight="1">
+    <row r="457" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="17"/>
       <c r="B457" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32342,7 +32342,7 @@
       </c>
       <c r="I457" s="1"/>
     </row>
-    <row r="458" spans="1:9" ht="36" customHeight="1">
+    <row r="458" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="17"/>
       <c r="B458" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32374,7 +32374,7 @@
       </c>
       <c r="I458" s="1"/>
     </row>
-    <row r="459" spans="1:9" ht="36" customHeight="1">
+    <row r="459" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="17"/>
       <c r="B459" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32406,7 +32406,7 @@
       </c>
       <c r="I459" s="1"/>
     </row>
-    <row r="460" spans="1:9" ht="36" customHeight="1">
+    <row r="460" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="17"/>
       <c r="B460" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32438,7 +32438,7 @@
       </c>
       <c r="I460" s="1"/>
     </row>
-    <row r="461" spans="1:9" ht="36" customHeight="1">
+    <row r="461" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="17"/>
       <c r="B461" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32470,7 +32470,7 @@
       </c>
       <c r="I461" s="1"/>
     </row>
-    <row r="462" spans="1:9" ht="36" customHeight="1">
+    <row r="462" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="17"/>
       <c r="B462" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32502,7 +32502,7 @@
       </c>
       <c r="I462" s="1"/>
     </row>
-    <row r="463" spans="1:9" ht="36" customHeight="1">
+    <row r="463" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="17"/>
       <c r="B463" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32534,7 +32534,7 @@
       </c>
       <c r="I463" s="1"/>
     </row>
-    <row r="464" spans="1:9" ht="36" customHeight="1">
+    <row r="464" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="17"/>
       <c r="B464" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32566,7 +32566,7 @@
       </c>
       <c r="I464" s="1"/>
     </row>
-    <row r="465" spans="1:9" ht="36" customHeight="1">
+    <row r="465" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="17"/>
       <c r="B465" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32598,7 +32598,7 @@
       </c>
       <c r="I465" s="1"/>
     </row>
-    <row r="466" spans="1:9" ht="36" customHeight="1">
+    <row r="466" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="17"/>
       <c r="B466" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32630,7 +32630,7 @@
       </c>
       <c r="I466" s="1"/>
     </row>
-    <row r="467" spans="1:9" ht="36" customHeight="1">
+    <row r="467" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="17"/>
       <c r="B467" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32662,7 +32662,7 @@
       </c>
       <c r="I467" s="1"/>
     </row>
-    <row r="468" spans="1:9" ht="36" customHeight="1">
+    <row r="468" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="17"/>
       <c r="B468" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32694,7 +32694,7 @@
       </c>
       <c r="I468" s="1"/>
     </row>
-    <row r="469" spans="1:9" ht="36" customHeight="1">
+    <row r="469" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="17"/>
       <c r="B469" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32726,7 +32726,7 @@
       </c>
       <c r="I469" s="1"/>
     </row>
-    <row r="470" spans="1:9" ht="36" customHeight="1">
+    <row r="470" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="17"/>
       <c r="B470" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32758,7 +32758,7 @@
       </c>
       <c r="I470" s="1"/>
     </row>
-    <row r="471" spans="1:9" ht="36" customHeight="1">
+    <row r="471" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="17"/>
       <c r="B471" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="I471" s="1"/>
     </row>
-    <row r="472" spans="1:9" ht="36" customHeight="1">
+    <row r="472" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="17"/>
       <c r="B472" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32822,7 +32822,7 @@
       </c>
       <c r="I472" s="1"/>
     </row>
-    <row r="473" spans="1:9" ht="36" customHeight="1">
+    <row r="473" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="17"/>
       <c r="B473" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32854,7 +32854,7 @@
       </c>
       <c r="I473" s="1"/>
     </row>
-    <row r="474" spans="1:9" ht="36" customHeight="1">
+    <row r="474" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="17"/>
       <c r="B474" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32886,7 +32886,7 @@
       </c>
       <c r="I474" s="1"/>
     </row>
-    <row r="475" spans="1:9" ht="36" customHeight="1">
+    <row r="475" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="17"/>
       <c r="B475" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32918,7 +32918,7 @@
       </c>
       <c r="I475" s="1"/>
     </row>
-    <row r="476" spans="1:9" ht="36" customHeight="1">
+    <row r="476" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="17"/>
       <c r="B476" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32950,7 +32950,7 @@
       </c>
       <c r="I476" s="1"/>
     </row>
-    <row r="477" spans="1:9" ht="36" customHeight="1">
+    <row r="477" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="17"/>
       <c r="B477" s="13" t="str">
         <f t="shared" si="54"/>
@@ -32982,7 +32982,7 @@
       </c>
       <c r="I477" s="1"/>
     </row>
-    <row r="478" spans="1:9" ht="36" customHeight="1">
+    <row r="478" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="17"/>
       <c r="B478" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33014,7 +33014,7 @@
       </c>
       <c r="I478" s="1"/>
     </row>
-    <row r="479" spans="1:9" ht="36" customHeight="1">
+    <row r="479" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="17"/>
       <c r="B479" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33046,7 +33046,7 @@
       </c>
       <c r="I479" s="1"/>
     </row>
-    <row r="480" spans="1:9" ht="36" customHeight="1">
+    <row r="480" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="17"/>
       <c r="B480" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33078,7 +33078,7 @@
       </c>
       <c r="I480" s="1"/>
     </row>
-    <row r="481" spans="1:9" ht="36" customHeight="1">
+    <row r="481" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="17"/>
       <c r="B481" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33110,7 +33110,7 @@
       </c>
       <c r="I481" s="1"/>
     </row>
-    <row r="482" spans="1:9" ht="36" customHeight="1">
+    <row r="482" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="17"/>
       <c r="B482" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33142,7 +33142,7 @@
       </c>
       <c r="I482" s="1"/>
     </row>
-    <row r="483" spans="1:9" ht="36" customHeight="1">
+    <row r="483" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="17"/>
       <c r="B483" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33174,7 +33174,7 @@
       </c>
       <c r="I483" s="1"/>
     </row>
-    <row r="484" spans="1:9" ht="36" customHeight="1">
+    <row r="484" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="17"/>
       <c r="B484" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="I484" s="1"/>
     </row>
-    <row r="485" spans="1:9" ht="36" customHeight="1">
+    <row r="485" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="17"/>
       <c r="B485" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33238,7 +33238,7 @@
       </c>
       <c r="I485" s="1"/>
     </row>
-    <row r="486" spans="1:9" ht="36" customHeight="1">
+    <row r="486" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="17"/>
       <c r="B486" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33270,7 +33270,7 @@
       </c>
       <c r="I486" s="1"/>
     </row>
-    <row r="487" spans="1:9" ht="36" customHeight="1">
+    <row r="487" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="17"/>
       <c r="B487" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33302,7 +33302,7 @@
       </c>
       <c r="I487" s="1"/>
     </row>
-    <row r="488" spans="1:9" ht="36" customHeight="1">
+    <row r="488" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="17"/>
       <c r="B488" s="13" t="str">
         <f t="shared" si="54"/>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="I488" s="1"/>
     </row>
-    <row r="489" spans="1:9" ht="36" customHeight="1">
+    <row r="489" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B489" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33356,7 +33356,7 @@
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="36" customHeight="1">
+    <row r="490" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B490" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33378,7 +33378,7 @@
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="36" customHeight="1">
+    <row r="491" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B491" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33400,7 +33400,7 @@
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="36" customHeight="1">
+    <row r="492" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B492" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33422,7 +33422,7 @@
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="36" customHeight="1">
+    <row r="493" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B493" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33444,7 +33444,7 @@
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="36" customHeight="1">
+    <row r="494" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B494" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33466,7 +33466,7 @@
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="36" customHeight="1">
+    <row r="495" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B495" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33488,7 +33488,7 @@
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="36" customHeight="1">
+    <row r="496" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B496" s="13" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -33549,36 +33549,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.85546875" customWidth="1"/>
     <col min="2" max="2" width="68.7109375" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.25" customHeight="1">
+    <row r="1" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="72.75" customHeight="1">
+    <row r="2" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="31"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="29"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>42</v>
       </c>
@@ -33586,7 +33586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="180" customHeight="1">
+    <row r="5" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>44</v>
       </c>
@@ -33594,7 +33594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="210" customHeight="1">
+    <row r="6" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -33605,7 +33605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="210" customHeight="1">
+    <row r="7" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
@@ -33616,7 +33616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="150" customHeight="1">
+    <row r="8" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
@@ -33627,7 +33627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="255" customHeight="1">
+    <row r="9" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>55</v>
       </c>
@@ -33635,7 +33635,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="255" customHeight="1">
+    <row r="10" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>57</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="285" customHeight="1">
+    <row r="11" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>60</v>
       </c>
@@ -33657,7 +33657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="285" customHeight="1">
+    <row r="12" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>63</v>
       </c>
@@ -33665,7 +33665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="255" customHeight="1">
+    <row r="13" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
@@ -33673,7 +33673,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="165" customHeight="1">
+    <row r="14" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>67</v>
       </c>
@@ -33681,7 +33681,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="165" customHeight="1">
+    <row r="15" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>69</v>
       </c>
@@ -33689,7 +33689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="165" customHeight="1">
+    <row r="16" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>71</v>
       </c>
@@ -33697,7 +33697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="225" customHeight="1">
+    <row r="17" spans="1:3" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>73</v>
       </c>
@@ -33705,7 +33705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="180" customHeight="1">
+    <row r="18" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>75</v>
       </c>
@@ -33713,7 +33713,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="105" customHeight="1">
+    <row r="19" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>77</v>
       </c>
@@ -33721,7 +33721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
+    <row r="20" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>79</v>
       </c>
@@ -33729,7 +33729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="135" customHeight="1">
+    <row r="21" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>81</v>
       </c>
@@ -33749,13 +33749,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB4C434-340F-498B-9AF1-8A079C686E80}">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>82</v>
       </c>
@@ -33771,7 +33771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -33812,112 +33812,112 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="51.75" customHeight="1">
+    <row r="25" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>98</v>
       </c>
@@ -33937,7 +33937,7 @@
       <c r="O25" s="32"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>99</v>
       </c>
@@ -33957,7 +33957,7 @@
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="34"/>
       <c r="C27" s="34"/>
@@ -33975,7 +33975,7 @@
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -33993,7 +33993,7 @@
       <c r="O28" s="34"/>
       <c r="P28" s="34"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -34011,7 +34011,7 @@
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -34029,7 +34029,7 @@
       <c r="O30" s="34"/>
       <c r="P30" s="34"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
@@ -34047,7 +34047,7 @@
       <c r="O31" s="34"/>
       <c r="P31" s="34"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -34065,7 +34065,7 @@
       <c r="O32" s="34"/>
       <c r="P32" s="34"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -34083,7 +34083,7 @@
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -34101,7 +34101,7 @@
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="34"/>
       <c r="C35" s="34"/>
@@ -34119,7 +34119,7 @@
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
